--- a/etf_dfs/PAK.xlsx
+++ b/etf_dfs/PAK.xlsx
@@ -1,78 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
+  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
-  <si>
-    <t>Open</t>
-  </si>
-  <si>
-    <t>High</t>
-  </si>
-  <si>
-    <t>Low</t>
-  </si>
-  <si>
-    <t>Close</t>
-  </si>
-  <si>
-    <t>Adj Close</t>
-  </si>
-  <si>
-    <t>Volume</t>
-  </si>
-  <si>
-    <t>Return</t>
-  </si>
-  <si>
-    <t>Volatility</t>
-  </si>
-  <si>
-    <t>Trend</t>
-  </si>
-  <si>
-    <t>PAK</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
   </numFmts>
   <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -87,38 +49,96 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -406,2835 +426,2888 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:K83"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11">
-      <c r="B1" s="1" t="s">
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Open</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Close</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Adj Close</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Volume</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Return</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Volatility</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Trend</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>PAK</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>42095</v>
+      </c>
+      <c r="B2" t="n">
+        <v>61.79999923706055</v>
+      </c>
+      <c r="C2" t="n">
+        <v>62.15999984741211</v>
+      </c>
+      <c r="D2" t="n">
+        <v>61.2239990234375</v>
+      </c>
+      <c r="E2" t="n">
+        <v>61.91999816894531</v>
+      </c>
+      <c r="F2" t="n">
+        <v>44.02816390991211</v>
+      </c>
+      <c r="G2" t="n">
+        <v>875</v>
+      </c>
+      <c r="H2" t="inlineStr"/>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>42125</v>
+      </c>
+      <c r="B3" t="n">
+        <v>60.40000152587891</v>
+      </c>
+      <c r="C3" t="n">
+        <v>60.43999862670898</v>
+      </c>
+      <c r="D3" t="n">
+        <v>60.34400177001953</v>
+      </c>
+      <c r="E3" t="n">
+        <v>60.40000152587891</v>
+      </c>
+      <c r="F3" t="n">
+        <v>42.94737243652344</v>
+      </c>
+      <c r="G3" t="n">
+        <v>375</v>
+      </c>
+      <c r="H3" t="n">
+        <v>-0.024547750129436</v>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>42156</v>
+      </c>
+      <c r="B4" t="n">
+        <v>61.91999816894531</v>
+      </c>
+      <c r="C4" t="n">
+        <v>61.95999908447266</v>
+      </c>
+      <c r="D4" t="n">
+        <v>61.72000122070312</v>
+      </c>
+      <c r="E4" t="n">
+        <v>61.84000015258789</v>
+      </c>
+      <c r="F4" t="n">
+        <v>43.97128295898438</v>
+      </c>
+      <c r="G4" t="n">
+        <v>1025</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.02384103626374912</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.03421603899200854</v>
+      </c>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>42186</v>
+      </c>
+      <c r="B5" t="n">
+        <v>63.88000106811523</v>
+      </c>
+      <c r="C5" t="n">
+        <v>63.88000106811523</v>
+      </c>
+      <c r="D5" t="n">
+        <v>63.88000106811523</v>
+      </c>
+      <c r="E5" t="n">
+        <v>63.88000106811523</v>
+      </c>
+      <c r="F5" t="n">
+        <v>45.42182159423828</v>
+      </c>
+      <c r="G5" t="n">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11">
-      <c r="A2" s="2">
-        <v>42095</v>
-      </c>
-      <c r="B2">
-        <v>61.79999923706055</v>
-      </c>
-      <c r="C2">
-        <v>62.15999984741211</v>
-      </c>
-      <c r="D2">
-        <v>61.2239990234375</v>
-      </c>
-      <c r="E2">
-        <v>61.91999816894531</v>
-      </c>
-      <c r="F2">
-        <v>44.02816009521484</v>
-      </c>
-      <c r="G2">
-        <v>875</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11">
-      <c r="A3" s="2">
-        <v>42125</v>
-      </c>
-      <c r="B3">
-        <v>60.40000152587891</v>
-      </c>
-      <c r="C3">
-        <v>60.43999862670898</v>
-      </c>
-      <c r="D3">
-        <v>60.34400177001953</v>
-      </c>
-      <c r="E3">
-        <v>60.40000152587891</v>
-      </c>
-      <c r="F3">
-        <v>42.94737243652344</v>
-      </c>
-      <c r="G3">
-        <v>375</v>
-      </c>
-      <c r="H3">
-        <v>-0.024547750129436</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11">
-      <c r="A4" s="2">
-        <v>42156</v>
-      </c>
-      <c r="B4">
-        <v>61.91999816894531</v>
-      </c>
-      <c r="C4">
-        <v>61.95999908447266</v>
-      </c>
-      <c r="D4">
-        <v>61.72000122070312</v>
-      </c>
-      <c r="E4">
-        <v>61.84000015258789</v>
-      </c>
-      <c r="F4">
-        <v>43.97128295898438</v>
-      </c>
-      <c r="G4">
-        <v>1025</v>
-      </c>
-      <c r="H4">
-        <v>0.02384103626374912</v>
-      </c>
-      <c r="I4">
-        <v>0.03421603899200854</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11">
-      <c r="A5" s="2">
-        <v>42186</v>
-      </c>
-      <c r="B5">
-        <v>63.88000106811523</v>
-      </c>
-      <c r="C5">
-        <v>63.88000106811523</v>
-      </c>
-      <c r="D5">
-        <v>63.88000106811523</v>
-      </c>
-      <c r="E5">
-        <v>63.88000106811523</v>
-      </c>
-      <c r="F5">
-        <v>45.42182540893555</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="H5">
+      <c r="H5" t="n">
         <v>0.03298837177383107</v>
       </c>
-      <c r="I5">
+      <c r="I5" t="n">
         <v>0.03091804683138666</v>
       </c>
-    </row>
-    <row r="6" spans="1:11">
-      <c r="A6" s="2">
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
         <v>42217</v>
       </c>
-      <c r="B6">
+      <c r="B6" t="n">
         <v>59.04000091552734</v>
       </c>
-      <c r="C6">
+      <c r="C6" t="n">
         <v>59.47999954223633</v>
       </c>
-      <c r="D6">
+      <c r="D6" t="n">
         <v>59.00400161743164</v>
       </c>
-      <c r="E6">
+      <c r="E6" t="n">
         <v>59.45999908447266</v>
       </c>
-      <c r="F6">
-        <v>42.27898025512695</v>
-      </c>
-      <c r="G6">
+      <c r="F6" t="n">
+        <v>42.27898788452148</v>
+      </c>
+      <c r="G6" t="n">
         <v>700</v>
       </c>
-      <c r="H6">
+      <c r="H6" t="n">
         <v>-0.06919226533715195</v>
       </c>
-      <c r="I6">
+      <c r="I6" t="n">
         <v>0.04727998542768874</v>
       </c>
-    </row>
-    <row r="7" spans="1:11">
-      <c r="A7" s="2">
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
         <v>42248</v>
       </c>
-      <c r="B7">
+      <c r="B7" t="n">
         <v>54.20000076293945</v>
       </c>
-      <c r="C7">
+      <c r="C7" t="n">
         <v>54.20000076293945</v>
       </c>
-      <c r="D7">
+      <c r="D7" t="n">
         <v>54.20000076293945</v>
       </c>
-      <c r="E7">
+      <c r="E7" t="n">
         <v>54.20000076293945</v>
       </c>
-      <c r="F7">
-        <v>38.53886413574219</v>
-      </c>
-      <c r="G7">
+      <c r="F7" t="n">
+        <v>38.53887176513672</v>
+      </c>
+      <c r="G7" t="n">
         <v>25</v>
       </c>
-      <c r="H7">
+      <c r="H7" t="n">
         <v>-0.08846280528966233</v>
       </c>
-      <c r="I7">
+      <c r="I7" t="n">
         <v>0.05414969690056785</v>
       </c>
-    </row>
-    <row r="8" spans="1:11">
-      <c r="A8" s="2">
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
         <v>42278</v>
       </c>
-      <c r="B8">
+      <c r="B8" t="n">
         <v>57.00400161743164</v>
       </c>
-      <c r="C8">
+      <c r="C8" t="n">
         <v>57.27999877929688</v>
       </c>
-      <c r="D8">
+      <c r="D8" t="n">
         <v>57.00400161743164</v>
       </c>
-      <c r="E8">
+      <c r="E8" t="n">
         <v>57.27999877929688</v>
       </c>
-      <c r="F8">
-        <v>40.72889709472656</v>
-      </c>
-      <c r="G8">
+      <c r="F8" t="n">
+        <v>40.7288932800293</v>
+      </c>
+      <c r="G8" t="n">
         <v>200</v>
       </c>
-      <c r="H8">
+      <c r="H8" t="n">
         <v>0.05682653086719958</v>
       </c>
-      <c r="I8">
+      <c r="I8" t="n">
         <v>0.05885337599409719</v>
       </c>
-    </row>
-    <row r="9" spans="1:11">
-      <c r="A9" s="2">
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
         <v>42309</v>
       </c>
-      <c r="B9">
+      <c r="B9" t="n">
         <v>54</v>
       </c>
-      <c r="C9">
+      <c r="C9" t="n">
         <v>54.04000091552734</v>
       </c>
-      <c r="D9">
+      <c r="D9" t="n">
         <v>53.11999893188477</v>
       </c>
-      <c r="E9">
+      <c r="E9" t="n">
         <v>53.40000152587891</v>
       </c>
-      <c r="F9">
-        <v>37.97002410888672</v>
-      </c>
-      <c r="G9">
+      <c r="F9" t="n">
+        <v>37.97002792358398</v>
+      </c>
+      <c r="G9" t="n">
         <v>1625</v>
       </c>
-      <c r="H9">
+      <c r="H9" t="n">
         <v>-0.06773738366105453</v>
       </c>
-      <c r="I9">
+      <c r="I9" t="n">
         <v>0.05778800621370157</v>
       </c>
-    </row>
-    <row r="10" spans="1:11">
-      <c r="A10" s="2">
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
         <v>42339</v>
       </c>
-      <c r="B10">
+      <c r="B10" t="n">
         <v>52.11600112915039</v>
       </c>
-      <c r="C10">
+      <c r="C10" t="n">
         <v>52.11600112915039</v>
       </c>
-      <c r="D10">
+      <c r="D10" t="n">
         <v>52.07600021362305</v>
       </c>
-      <c r="E10">
+      <c r="E10" t="n">
         <v>52.07600021362305</v>
       </c>
-      <c r="F10">
-        <v>38.21877670288086</v>
-      </c>
-      <c r="G10">
+      <c r="F10" t="n">
+        <v>38.21878051757812</v>
+      </c>
+      <c r="G10" t="n">
         <v>125</v>
       </c>
-      <c r="H10">
+      <c r="H10" t="n">
         <v>-0.02479403135623914</v>
       </c>
-      <c r="I10">
+      <c r="I10" t="n">
         <v>0.05353441049897694</v>
       </c>
-    </row>
-    <row r="11" spans="1:11">
-      <c r="A11" s="2">
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
         <v>42370</v>
       </c>
-      <c r="B11">
+      <c r="B11" t="n">
         <v>49.11999893188477</v>
       </c>
-      <c r="C11">
+      <c r="C11" t="n">
         <v>49.11999893188477</v>
       </c>
-      <c r="D11">
+      <c r="D11" t="n">
         <v>49.11999893188477</v>
       </c>
-      <c r="E11">
+      <c r="E11" t="n">
         <v>49.11999893188477</v>
       </c>
-      <c r="F11">
+      <c r="F11" t="n">
         <v>36.04935836791992</v>
       </c>
-      <c r="G11">
+      <c r="G11" t="n">
         <v>25</v>
       </c>
-      <c r="H11">
+      <c r="H11" t="n">
         <v>-0.05676321663745965</v>
       </c>
-      <c r="I11">
+      <c r="I11" t="n">
         <v>0.051543794831947</v>
       </c>
-    </row>
-    <row r="12" spans="1:11">
-      <c r="A12" s="2">
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
         <v>42401</v>
       </c>
-      <c r="B12">
+      <c r="B12" t="n">
         <v>49.43999862670898</v>
       </c>
-      <c r="C12">
+      <c r="C12" t="n">
         <v>50.04000091552734</v>
       </c>
-      <c r="D12">
+      <c r="D12" t="n">
         <v>49.43999862670898</v>
       </c>
-      <c r="E12">
+      <c r="E12" t="n">
         <v>50</v>
       </c>
-      <c r="F12">
-        <v>36.69519805908203</v>
-      </c>
-      <c r="G12">
+      <c r="F12" t="n">
+        <v>36.69519424438477</v>
+      </c>
+      <c r="G12" t="n">
         <v>1675</v>
       </c>
-      <c r="H12">
+      <c r="H12" t="n">
         <v>0.01791533158084024</v>
       </c>
-      <c r="I12">
+      <c r="I12" t="n">
         <v>0.05038825151244748</v>
       </c>
-    </row>
-    <row r="13" spans="1:11">
-      <c r="A13" s="2">
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
         <v>42430</v>
       </c>
-      <c r="B13">
+      <c r="B13" t="n">
         <v>52</v>
       </c>
-      <c r="C13">
+      <c r="C13" t="n">
         <v>52.63999938964844</v>
       </c>
-      <c r="D13">
+      <c r="D13" t="n">
         <v>52</v>
       </c>
-      <c r="E13">
+      <c r="E13" t="n">
         <v>52.63999938964844</v>
       </c>
-      <c r="F13">
-        <v>38.63269805908203</v>
-      </c>
-      <c r="G13">
+      <c r="F13" t="n">
+        <v>38.6327018737793</v>
+      </c>
+      <c r="G13" t="n">
         <v>250</v>
       </c>
-      <c r="H13">
+      <c r="H13" t="n">
         <v>0.05279998779296879</v>
       </c>
-      <c r="I13">
+      <c r="I13" t="n">
         <v>0.05260022882937589</v>
       </c>
-    </row>
-    <row r="14" spans="1:11">
-      <c r="A14" s="2">
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
         <v>42461</v>
       </c>
-      <c r="B14">
+      <c r="B14" t="n">
         <v>55.29199981689453</v>
       </c>
-      <c r="C14">
+      <c r="C14" t="n">
         <v>55.36000061035156</v>
       </c>
-      <c r="D14">
+      <c r="D14" t="n">
         <v>55.29199981689453</v>
       </c>
-      <c r="E14">
+      <c r="E14" t="n">
         <v>55.34000015258789</v>
       </c>
-      <c r="F14">
+      <c r="F14" t="n">
         <v>40.61423873901367</v>
       </c>
-      <c r="G14">
+      <c r="G14" t="n">
         <v>450</v>
       </c>
-      <c r="H14">
+      <c r="H14" t="n">
         <v>0.05129180840132008</v>
       </c>
-      <c r="I14">
+      <c r="I14" t="n">
         <v>0.05351394609980839</v>
       </c>
-      <c r="J14">
+      <c r="J14" t="n">
         <v>-0.1062661209776566</v>
       </c>
-      <c r="K14">
+      <c r="K14" t="n">
         <v>-0.1062661209776566</v>
       </c>
     </row>
-    <row r="15" spans="1:11">
-      <c r="A15" s="2">
+    <row r="15">
+      <c r="A15" s="2" t="n">
         <v>42491</v>
       </c>
-      <c r="B15">
+      <c r="B15" t="n">
         <v>58.11999893188477</v>
       </c>
-      <c r="C15">
+      <c r="C15" t="n">
         <v>58.11999893188477</v>
       </c>
-      <c r="D15">
+      <c r="D15" t="n">
         <v>57.11999893188477</v>
       </c>
-      <c r="E15">
+      <c r="E15" t="n">
         <v>57.40000152587891</v>
       </c>
-      <c r="F15">
-        <v>42.12609100341797</v>
-      </c>
-      <c r="G15">
+      <c r="F15" t="n">
+        <v>42.12608337402344</v>
+      </c>
+      <c r="G15" t="n">
         <v>1000</v>
       </c>
-      <c r="H15">
+      <c r="H15" t="n">
         <v>0.03722445550435527</v>
       </c>
-      <c r="I15">
+      <c r="I15" t="n">
         <v>0.05274777952849672</v>
       </c>
-      <c r="J15">
+      <c r="J15" t="n">
         <v>-0.04966887291740585</v>
       </c>
-      <c r="K15">
+      <c r="K15" t="n">
         <v>-0.04966887291740585</v>
       </c>
     </row>
-    <row r="16" spans="1:11">
-      <c r="A16" s="2">
+    <row r="16">
+      <c r="A16" s="2" t="n">
         <v>42522</v>
       </c>
-      <c r="B16">
+      <c r="B16" t="n">
         <v>59.91999816894531</v>
       </c>
-      <c r="C16">
+      <c r="C16" t="n">
         <v>60.79999923706055</v>
       </c>
-      <c r="D16">
+      <c r="D16" t="n">
         <v>59.91999816894531</v>
       </c>
-      <c r="E16">
+      <c r="E16" t="n">
         <v>60.79999923706055</v>
       </c>
-      <c r="F16">
-        <v>44.62136459350586</v>
-      </c>
-      <c r="G16">
+      <c r="F16" t="n">
+        <v>44.62135314941406</v>
+      </c>
+      <c r="G16" t="n">
         <v>325</v>
       </c>
-      <c r="H16">
+      <c r="H16" t="n">
         <v>0.05923340802785071</v>
       </c>
-      <c r="I16">
+      <c r="I16" t="n">
         <v>0.05346512026504577</v>
       </c>
-      <c r="J16">
+      <c r="J16" t="n">
         <v>-0.01681760855370606</v>
       </c>
-      <c r="K16">
+      <c r="K16" t="n">
         <v>-0.01681760855370606</v>
       </c>
     </row>
-    <row r="17" spans="1:11">
-      <c r="A17" s="2">
+    <row r="17">
+      <c r="A17" s="2" t="n">
         <v>42552</v>
       </c>
-      <c r="B17">
+      <c r="B17" t="n">
         <v>62.91999816894531</v>
       </c>
-      <c r="C17">
+      <c r="C17" t="n">
         <v>63</v>
       </c>
-      <c r="D17">
+      <c r="D17" t="n">
         <v>62.63999938964844</v>
       </c>
-      <c r="E17">
+      <c r="E17" t="n">
         <v>62.88000106811523</v>
       </c>
-      <c r="F17">
-        <v>46.14788436889648</v>
-      </c>
-      <c r="G17">
+      <c r="F17" t="n">
+        <v>46.14788055419922</v>
+      </c>
+      <c r="G17" t="n">
         <v>1575</v>
       </c>
-      <c r="H17">
+      <c r="H17" t="n">
         <v>0.03421055686110641</v>
       </c>
-      <c r="I17">
+      <c r="I17" t="n">
         <v>0.05227007069958631</v>
       </c>
-      <c r="J17">
+      <c r="J17" t="n">
         <v>-0.01565435164807993</v>
       </c>
-      <c r="K17">
+      <c r="K17" t="n">
         <v>-0.01565435164807993</v>
       </c>
     </row>
-    <row r="18" spans="1:11">
-      <c r="A18" s="2">
+    <row r="18">
+      <c r="A18" s="2" t="n">
         <v>42583</v>
       </c>
-      <c r="B18">
+      <c r="B18" t="n">
         <v>62.11199951171875</v>
       </c>
-      <c r="C18">
+      <c r="C18" t="n">
         <v>62.11199951171875</v>
       </c>
-      <c r="D18">
+      <c r="D18" t="n">
         <v>62.11199951171875</v>
       </c>
-      <c r="E18">
+      <c r="E18" t="n">
         <v>62.11199951171875</v>
       </c>
-      <c r="F18">
+      <c r="F18" t="n">
         <v>45.5842399597168</v>
       </c>
-      <c r="G18">
+      <c r="G18" t="n">
         <v>75</v>
       </c>
-      <c r="H18">
+      <c r="H18" t="n">
         <v>-0.01221376500239779</v>
       </c>
-      <c r="I18">
+      <c r="I18" t="n">
         <v>0.05062827559067443</v>
       </c>
-      <c r="J18">
+      <c r="J18" t="n">
         <v>0.04460142058661143</v>
       </c>
-      <c r="K18">
+      <c r="K18" t="n">
         <v>0.04460142058661143</v>
       </c>
     </row>
-    <row r="19" spans="1:11">
-      <c r="A19" s="2">
+    <row r="19">
+      <c r="A19" s="2" t="n">
         <v>42614</v>
       </c>
-      <c r="B19">
+      <c r="B19" t="n">
         <v>63.2400016784668</v>
       </c>
-      <c r="C19">
+      <c r="C19" t="n">
         <v>63.40000152587891</v>
       </c>
-      <c r="D19">
+      <c r="D19" t="n">
         <v>63.2400016784668</v>
       </c>
-      <c r="E19">
+      <c r="E19" t="n">
         <v>63.36000061035156</v>
       </c>
-      <c r="F19">
-        <v>46.50015258789062</v>
-      </c>
-      <c r="G19">
+      <c r="F19" t="n">
+        <v>46.50014877319336</v>
+      </c>
+      <c r="G19" t="n">
         <v>300</v>
       </c>
-      <c r="H19">
+      <c r="H19" t="n">
         <v>0.02009275354913265</v>
       </c>
-      <c r="I19">
+      <c r="I19" t="n">
         <v>0.04922951038664587</v>
       </c>
-      <c r="J19">
+      <c r="J19" t="n">
         <v>0.1690036848426666</v>
       </c>
-      <c r="K19">
+      <c r="K19" t="n">
         <v>0.1690036848426666</v>
       </c>
     </row>
-    <row r="20" spans="1:11">
-      <c r="A20" s="2">
+    <row r="20">
+      <c r="A20" s="2" t="n">
         <v>42644</v>
       </c>
-      <c r="B20">
+      <c r="B20" t="n">
         <v>61.2400016784668</v>
       </c>
-      <c r="C20">
+      <c r="C20" t="n">
         <v>61.2400016784668</v>
       </c>
-      <c r="D20">
+      <c r="D20" t="n">
         <v>61.2400016784668</v>
       </c>
-      <c r="E20">
+      <c r="E20" t="n">
         <v>61.2400016784668</v>
       </c>
-      <c r="F20">
-        <v>44.94427490234375</v>
-      </c>
-      <c r="G20">
+      <c r="F20" t="n">
+        <v>44.94427871704102</v>
+      </c>
+      <c r="G20" t="n">
         <v>25</v>
       </c>
-      <c r="H20">
+      <c r="H20" t="n">
         <v>-0.03345957877939798</v>
       </c>
-      <c r="I20">
+      <c r="I20" t="n">
         <v>0.04850640907989153</v>
       </c>
-      <c r="J20">
+      <c r="J20" t="n">
         <v>0.0691341302996189</v>
       </c>
-      <c r="K20">
+      <c r="K20" t="n">
         <v>0.0691341302996189</v>
       </c>
     </row>
-    <row r="21" spans="1:11">
-      <c r="A21" s="2">
+    <row r="21">
+      <c r="A21" s="2" t="n">
         <v>42675</v>
       </c>
-      <c r="B21">
+      <c r="B21" t="n">
         <v>63.5</v>
       </c>
-      <c r="C21">
+      <c r="C21" t="n">
         <v>63.5</v>
       </c>
-      <c r="D21">
+      <c r="D21" t="n">
         <v>63.20000076293945</v>
       </c>
-      <c r="E21">
+      <c r="E21" t="n">
         <v>63.26800155639648</v>
       </c>
-      <c r="F21">
-        <v>46.43264007568359</v>
-      </c>
-      <c r="G21">
+      <c r="F21" t="n">
+        <v>46.4326286315918</v>
+      </c>
+      <c r="G21" t="n">
         <v>725</v>
       </c>
-      <c r="H21">
+      <c r="H21" t="n">
         <v>0.03311560781100975</v>
       </c>
-      <c r="I21">
+      <c r="I21" t="n">
         <v>0.04772941027389031</v>
       </c>
-      <c r="J21">
+      <c r="J21" t="n">
         <v>0.1847940027817285</v>
       </c>
-      <c r="K21">
+      <c r="K21" t="n">
         <v>0.1847940027817285</v>
       </c>
     </row>
-    <row r="22" spans="1:11">
-      <c r="A22" s="2">
+    <row r="22">
+      <c r="A22" s="2" t="n">
         <v>42705</v>
       </c>
-      <c r="B22">
+      <c r="B22" t="n">
         <v>69.91999816894531</v>
       </c>
-      <c r="C22">
+      <c r="C22" t="n">
         <v>70.48000335693359</v>
       </c>
-      <c r="D22">
+      <c r="D22" t="n">
         <v>69.68000030517578</v>
       </c>
-      <c r="E22">
+      <c r="E22" t="n">
         <v>70</v>
       </c>
-      <c r="F22">
-        <v>52.93732833862305</v>
-      </c>
-      <c r="G22">
+      <c r="F22" t="n">
+        <v>52.93733596801758</v>
+      </c>
+      <c r="G22" t="n">
         <v>3575</v>
       </c>
-      <c r="H22">
+      <c r="H22" t="n">
         <v>0.1064044742681287</v>
       </c>
-      <c r="I22">
+      <c r="I22" t="n">
         <v>0.05196935017747209</v>
       </c>
-      <c r="J22">
+      <c r="J22" t="n">
         <v>0.3441892563340156</v>
       </c>
-      <c r="K22">
+      <c r="K22" t="n">
         <v>0.3441892563340156</v>
       </c>
     </row>
-    <row r="23" spans="1:11">
-      <c r="A23" s="2">
+    <row r="23">
+      <c r="A23" s="2" t="n">
         <v>42736</v>
       </c>
-      <c r="B23">
+      <c r="B23" t="n">
         <v>70.68000030517578</v>
       </c>
-      <c r="C23">
+      <c r="C23" t="n">
         <v>70.95999908447266</v>
       </c>
-      <c r="D23">
+      <c r="D23" t="n">
         <v>70.40000152587891</v>
       </c>
-      <c r="E23">
+      <c r="E23" t="n">
         <v>70.40399932861328</v>
       </c>
-      <c r="F23">
-        <v>53.24285507202148</v>
-      </c>
-      <c r="G23">
+      <c r="F23" t="n">
+        <v>53.24285888671875</v>
+      </c>
+      <c r="G23" t="n">
         <v>1150</v>
       </c>
-      <c r="H23">
+      <c r="H23" t="n">
         <v>0.005771418980189624</v>
       </c>
-      <c r="I23">
+      <c r="I23" t="n">
         <v>0.05065476343723931</v>
       </c>
-      <c r="J23">
+      <c r="J23" t="n">
         <v>0.4333062064240529</v>
       </c>
-      <c r="K23">
+      <c r="K23" t="n">
         <v>0.4333062064240529</v>
       </c>
     </row>
-    <row r="24" spans="1:11">
-      <c r="A24" s="2">
+    <row r="24">
+      <c r="A24" s="2" t="n">
         <v>42767</v>
       </c>
-      <c r="B24">
+      <c r="B24" t="n">
         <v>70.44000244140625</v>
       </c>
-      <c r="C24">
+      <c r="C24" t="n">
         <v>70.44000244140625</v>
       </c>
-      <c r="D24">
+      <c r="D24" t="n">
         <v>70</v>
       </c>
-      <c r="E24">
+      <c r="E24" t="n">
         <v>70.04000091552734</v>
       </c>
-      <c r="F24">
-        <v>52.96758270263672</v>
-      </c>
-      <c r="G24">
+      <c r="F24" t="n">
+        <v>52.96757888793945</v>
+      </c>
+      <c r="G24" t="n">
         <v>5225</v>
       </c>
-      <c r="H24">
+      <c r="H24" t="n">
         <v>-0.005170138295510163</v>
       </c>
-      <c r="I24">
+      <c r="I24" t="n">
         <v>0.04950610921084829</v>
       </c>
-      <c r="J24">
+      <c r="J24" t="n">
         <v>0.4008000183105469</v>
       </c>
-      <c r="K24">
+      <c r="K24" t="n">
         <v>0.4008000183105469</v>
       </c>
     </row>
-    <row r="25" spans="1:11">
-      <c r="A25" s="2">
+    <row r="25">
+      <c r="A25" s="2" t="n">
         <v>42795</v>
       </c>
-      <c r="B25">
+      <c r="B25" t="n">
         <v>68.12000274658203</v>
       </c>
-      <c r="C25">
+      <c r="C25" t="n">
         <v>68.83999633789062</v>
       </c>
-      <c r="D25">
+      <c r="D25" t="n">
         <v>67.91999816894531</v>
       </c>
-      <c r="E25">
+      <c r="E25" t="n">
         <v>67.91999816894531</v>
       </c>
-      <c r="F25">
-        <v>51.36433410644531</v>
-      </c>
-      <c r="G25">
+      <c r="F25" t="n">
+        <v>51.36433029174805</v>
+      </c>
+      <c r="G25" t="n">
         <v>18475</v>
       </c>
-      <c r="H25">
+      <c r="H25" t="n">
         <v>-0.03026845686565438</v>
       </c>
-      <c r="I25">
+      <c r="I25" t="n">
         <v>0.04898123683357985</v>
       </c>
-      <c r="J25">
+      <c r="J25" t="n">
         <v>0.2902735364070248</v>
       </c>
-      <c r="K25">
+      <c r="K25" t="n">
         <v>0.2902735364070248</v>
       </c>
     </row>
-    <row r="26" spans="1:11">
-      <c r="A26" s="2">
+    <row r="26">
+      <c r="A26" s="2" t="n">
         <v>42826</v>
       </c>
-      <c r="B26">
+      <c r="B26" t="n">
         <v>71.19999694824219</v>
       </c>
-      <c r="C26">
+      <c r="C26" t="n">
         <v>71.48000335693359</v>
       </c>
-      <c r="D26">
+      <c r="D26" t="n">
         <v>71.16000366210938</v>
       </c>
-      <c r="E26">
+      <c r="E26" t="n">
         <v>71.19999694824219</v>
       </c>
-      <c r="F26">
-        <v>53.84482574462891</v>
-      </c>
-      <c r="G26">
+      <c r="F26" t="n">
+        <v>53.84483337402344</v>
+      </c>
+      <c r="G26" t="n">
         <v>8850</v>
       </c>
-      <c r="H26">
+      <c r="H26" t="n">
         <v>0.04829209169202486</v>
       </c>
-      <c r="I26">
+      <c r="I26" t="n">
         <v>0.0487062552231227</v>
       </c>
-      <c r="J26">
+      <c r="J26" t="n">
         <v>0.2865919181771566</v>
       </c>
-      <c r="K26">
+      <c r="K26" t="n">
         <v>0.2865919181771566</v>
       </c>
     </row>
-    <row r="27" spans="1:11">
-      <c r="A27" s="2">
+    <row r="27">
+      <c r="A27" s="2" t="n">
         <v>42856</v>
       </c>
-      <c r="B27">
+      <c r="B27" t="n">
         <v>72</v>
       </c>
-      <c r="C27">
+      <c r="C27" t="n">
         <v>72.12000274658203</v>
       </c>
-      <c r="D27">
+      <c r="D27" t="n">
         <v>70.76000213623047</v>
       </c>
-      <c r="E27">
+      <c r="E27" t="n">
         <v>72.08000183105469</v>
       </c>
-      <c r="F27">
+      <c r="F27" t="n">
         <v>54.51033020019531</v>
       </c>
-      <c r="G27">
+      <c r="G27" t="n">
         <v>140050</v>
       </c>
-      <c r="H27">
+      <c r="H27" t="n">
         <v>0.01235961967038013</v>
       </c>
-      <c r="I27">
+      <c r="I27" t="n">
         <v>0.04769290604383626</v>
       </c>
-      <c r="J27">
+      <c r="J27" t="n">
         <v>0.2557491274378674</v>
       </c>
-      <c r="K27">
+      <c r="K27" t="n">
         <v>0.2557491274378674</v>
       </c>
     </row>
-    <row r="28" spans="1:11">
-      <c r="A28" s="2">
+    <row r="28">
+      <c r="A28" s="2" t="n">
         <v>42887</v>
       </c>
-      <c r="B28">
+      <c r="B28" t="n">
         <v>66.16000366210938</v>
       </c>
-      <c r="C28">
+      <c r="C28" t="n">
         <v>66.55999755859375</v>
       </c>
-      <c r="D28">
+      <c r="D28" t="n">
         <v>66</v>
       </c>
-      <c r="E28">
+      <c r="E28" t="n">
         <v>66.48000335693359</v>
       </c>
-      <c r="F28">
+      <c r="F28" t="n">
         <v>50.27534484863281</v>
       </c>
-      <c r="G28">
+      <c r="G28" t="n">
         <v>12275</v>
       </c>
-      <c r="H28">
+      <c r="H28" t="n">
         <v>-0.07769143079722307</v>
       </c>
-      <c r="I28">
+      <c r="I28" t="n">
         <v>0.04960585405841723</v>
       </c>
-      <c r="J28">
+      <c r="J28" t="n">
         <v>0.09342112156492943</v>
       </c>
-      <c r="K28">
+      <c r="K28" t="n">
         <v>0.09342112156492943</v>
       </c>
     </row>
-    <row r="29" spans="1:11">
-      <c r="A29" s="2">
+    <row r="29">
+      <c r="A29" s="2" t="n">
         <v>42917</v>
       </c>
-      <c r="B29">
+      <c r="B29" t="n">
         <v>64.63999938964844</v>
       </c>
-      <c r="C29">
+      <c r="C29" t="n">
         <v>65.12000274658203</v>
       </c>
-      <c r="D29">
+      <c r="D29" t="n">
         <v>64.40000152587891</v>
       </c>
-      <c r="E29">
+      <c r="E29" t="n">
         <v>64.40000152587891</v>
       </c>
-      <c r="F29">
+      <c r="F29" t="n">
         <v>48.70234680175781</v>
       </c>
-      <c r="G29">
+      <c r="G29" t="n">
         <v>13675</v>
       </c>
-      <c r="H29">
+      <c r="H29" t="n">
         <v>-0.03128763125788492</v>
       </c>
-      <c r="I29">
+      <c r="I29" t="n">
         <v>0.04911233919451387</v>
       </c>
-      <c r="J29">
+      <c r="J29" t="n">
         <v>0.02417303485916156</v>
       </c>
-      <c r="K29">
+      <c r="K29" t="n">
         <v>0.02417303485916156</v>
       </c>
     </row>
-    <row r="30" spans="1:11">
-      <c r="A30" s="2">
+    <row r="30">
+      <c r="A30" s="2" t="n">
         <v>42948</v>
       </c>
-      <c r="B30">
+      <c r="B30" t="n">
         <v>57.40000152587891</v>
       </c>
-      <c r="C30">
+      <c r="C30" t="n">
         <v>58.04000091552734</v>
       </c>
-      <c r="D30">
+      <c r="D30" t="n">
         <v>57.04000091552734</v>
       </c>
-      <c r="E30">
+      <c r="E30" t="n">
         <v>57.79999923706055</v>
       </c>
-      <c r="F30">
+      <c r="F30" t="n">
         <v>43.71110534667969</v>
       </c>
-      <c r="G30">
+      <c r="G30" t="n">
         <v>86950</v>
       </c>
-      <c r="H30">
+      <c r="H30" t="n">
         <v>-0.1024845051621027</v>
       </c>
-      <c r="I30">
+      <c r="I30" t="n">
         <v>0.05212708260590689</v>
       </c>
-      <c r="J30">
+      <c r="J30" t="n">
         <v>-0.06942298281420889</v>
       </c>
-      <c r="K30">
+      <c r="K30" t="n">
         <v>-0.06942298281420889</v>
       </c>
     </row>
-    <row r="31" spans="1:11">
-      <c r="A31" s="2">
+    <row r="31">
+      <c r="A31" s="2" t="n">
         <v>42979</v>
       </c>
-      <c r="B31">
+      <c r="B31" t="n">
         <v>58.15999984741211</v>
       </c>
-      <c r="C31">
+      <c r="C31" t="n">
         <v>58.39599990844727</v>
       </c>
-      <c r="D31">
+      <c r="D31" t="n">
         <v>57.92399978637695</v>
       </c>
-      <c r="E31">
+      <c r="E31" t="n">
         <v>58.08000183105469</v>
       </c>
-      <c r="F31">
-        <v>43.92285537719727</v>
-      </c>
-      <c r="G31">
+      <c r="F31" t="n">
+        <v>43.92285919189453</v>
+      </c>
+      <c r="G31" t="n">
         <v>7175</v>
       </c>
-      <c r="H31">
+      <c r="H31" t="n">
         <v>0.004844335600174388</v>
       </c>
-      <c r="I31">
+      <c r="I31" t="n">
         <v>0.05119980918831359</v>
       </c>
-      <c r="J31">
+      <c r="J31" t="n">
         <v>-0.08333331326442961</v>
       </c>
-      <c r="K31">
+      <c r="K31" t="n">
         <v>-0.08333331326442961</v>
       </c>
     </row>
-    <row r="32" spans="1:11">
-      <c r="A32" s="2">
+    <row r="32">
+      <c r="A32" s="2" t="n">
         <v>43009</v>
       </c>
-      <c r="B32">
+      <c r="B32" t="n">
         <v>54.68000030517578</v>
       </c>
-      <c r="C32">
+      <c r="C32" t="n">
         <v>54.68000030517578</v>
       </c>
-      <c r="D32">
+      <c r="D32" t="n">
         <v>53.7599983215332</v>
       </c>
-      <c r="E32">
+      <c r="E32" t="n">
         <v>54.08000183105469</v>
       </c>
-      <c r="F32">
-        <v>40.89786911010742</v>
-      </c>
-      <c r="G32">
+      <c r="F32" t="n">
+        <v>40.89787292480469</v>
+      </c>
+      <c r="G32" t="n">
         <v>42625</v>
       </c>
-      <c r="H32">
+      <c r="H32" t="n">
         <v>-0.06887052124473669</v>
       </c>
-      <c r="I32">
+      <c r="I32" t="n">
         <v>0.05181609271512099</v>
       </c>
-      <c r="J32">
+      <c r="J32" t="n">
         <v>-0.1169170419851524</v>
       </c>
-      <c r="K32">
+      <c r="K32" t="n">
         <v>-0.1169170419851524</v>
       </c>
     </row>
-    <row r="33" spans="1:11">
-      <c r="A33" s="2">
+    <row r="33">
+      <c r="A33" s="2" t="n">
         <v>43040</v>
       </c>
-      <c r="B33">
+      <c r="B33" t="n">
         <v>54.27999877929688</v>
       </c>
-      <c r="C33">
+      <c r="C33" t="n">
         <v>54.95999908447266</v>
       </c>
-      <c r="D33">
+      <c r="D33" t="n">
         <v>54.08000183105469</v>
       </c>
-      <c r="E33">
+      <c r="E33" t="n">
         <v>54.2400016784668</v>
       </c>
-      <c r="F33">
-        <v>41.01887130737305</v>
-      </c>
-      <c r="G33">
+      <c r="F33" t="n">
+        <v>41.01886749267578</v>
+      </c>
+      <c r="G33" t="n">
         <v>14775</v>
       </c>
-      <c r="H33">
+      <c r="H33" t="n">
         <v>0.002958576959962933</v>
       </c>
-      <c r="I33">
+      <c r="I33" t="n">
         <v>0.05095714360079313</v>
       </c>
-      <c r="J33">
+      <c r="J33" t="n">
         <v>-0.1426945636947646</v>
       </c>
-      <c r="K33">
+      <c r="K33" t="n">
         <v>-0.1426945636947646</v>
       </c>
     </row>
-    <row r="34" spans="1:11">
-      <c r="A34" s="2">
+    <row r="34">
+      <c r="A34" s="2" t="n">
         <v>43070</v>
       </c>
-      <c r="B34">
+      <c r="B34" t="n">
         <v>49.59999847412109</v>
       </c>
-      <c r="C34">
+      <c r="C34" t="n">
         <v>49.91999816894531</v>
       </c>
-      <c r="D34">
+      <c r="D34" t="n">
         <v>48.95999908447266</v>
       </c>
-      <c r="E34">
+      <c r="E34" t="n">
         <v>49.52000045776367</v>
       </c>
-      <c r="F34">
+      <c r="F34" t="n">
         <v>40.81659317016602</v>
       </c>
-      <c r="G34">
+      <c r="G34" t="n">
         <v>79400</v>
       </c>
-      <c r="H34">
+      <c r="H34" t="n">
         <v>-0.08702066878026959</v>
       </c>
-      <c r="I34">
+      <c r="I34" t="n">
         <v>0.05228302946518043</v>
       </c>
-      <c r="J34">
+      <c r="J34" t="n">
         <v>-0.2925714220319475</v>
       </c>
-      <c r="K34">
+      <c r="K34" t="n">
         <v>-0.2925714220319475</v>
       </c>
     </row>
-    <row r="35" spans="1:11">
-      <c r="A35" s="2">
+    <row r="35">
+      <c r="A35" s="2" t="n">
         <v>43101</v>
       </c>
-      <c r="B35">
+      <c r="B35" t="n">
         <v>52.36000061035156</v>
       </c>
-      <c r="C35">
+      <c r="C35" t="n">
         <v>52.52000045776367</v>
       </c>
-      <c r="D35">
+      <c r="D35" t="n">
         <v>52</v>
       </c>
-      <c r="E35">
+      <c r="E35" t="n">
         <v>52.52000045776367</v>
       </c>
-      <c r="F35">
+      <c r="F35" t="n">
         <v>43.28932571411133</v>
       </c>
-      <c r="G35">
+      <c r="G35" t="n">
         <v>7450</v>
       </c>
-      <c r="H35">
+      <c r="H35" t="n">
         <v>0.0605815826386904</v>
       </c>
-      <c r="I35">
+      <c r="I35" t="n">
         <v>0.05273418803983097</v>
       </c>
-      <c r="J35">
+      <c r="J35" t="n">
         <v>-0.2540196443582045</v>
       </c>
-      <c r="K35">
+      <c r="K35" t="n">
         <v>-0.2540196443582045</v>
       </c>
     </row>
-    <row r="36" spans="1:11">
-      <c r="A36" s="2">
+    <row r="36">
+      <c r="A36" s="2" t="n">
         <v>43132</v>
       </c>
-      <c r="B36">
+      <c r="B36" t="n">
         <v>51.20000076293945</v>
       </c>
-      <c r="C36">
+      <c r="C36" t="n">
         <v>51.47999954223633</v>
       </c>
-      <c r="D36">
+      <c r="D36" t="n">
         <v>51.15999984741211</v>
       </c>
-      <c r="E36">
+      <c r="E36" t="n">
         <v>51.47999954223633</v>
       </c>
-      <c r="F36">
-        <v>42.43210983276367</v>
-      </c>
-      <c r="G36">
+      <c r="F36" t="n">
+        <v>42.43211364746094</v>
+      </c>
+      <c r="G36" t="n">
         <v>2875</v>
       </c>
-      <c r="H36">
+      <c r="H36" t="n">
         <v>-0.01980199745740119</v>
       </c>
-      <c r="I36">
+      <c r="I36" t="n">
         <v>0.052003210308206</v>
       </c>
-      <c r="J36">
+      <c r="J36" t="n">
         <v>-0.2649914496099957</v>
       </c>
-      <c r="K36">
+      <c r="K36" t="n">
         <v>-0.2649914496099957</v>
       </c>
     </row>
-    <row r="37" spans="1:11">
-      <c r="A37" s="2">
+    <row r="37">
+      <c r="A37" s="2" t="n">
         <v>43160</v>
       </c>
-      <c r="B37">
+      <c r="B37" t="n">
         <v>52</v>
       </c>
-      <c r="C37">
+      <c r="C37" t="n">
         <v>52.36000061035156</v>
       </c>
-      <c r="D37">
+      <c r="D37" t="n">
         <v>52</v>
       </c>
-      <c r="E37">
+      <c r="E37" t="n">
         <v>52.36000061035156</v>
       </c>
-      <c r="F37">
-        <v>43.15744781494141</v>
-      </c>
-      <c r="G37">
+      <c r="F37" t="n">
+        <v>43.15745162963867</v>
+      </c>
+      <c r="G37" t="n">
         <v>2775</v>
       </c>
-      <c r="H37">
+      <c r="H37" t="n">
         <v>0.01709403799417752</v>
       </c>
-      <c r="I37">
+      <c r="I37" t="n">
         <v>0.05135771444650988</v>
       </c>
-      <c r="J37">
+      <c r="J37" t="n">
         <v>-0.229093020878616</v>
       </c>
-      <c r="K37">
+      <c r="K37" t="n">
         <v>-0.229093020878616</v>
       </c>
     </row>
-    <row r="38" spans="1:11">
-      <c r="A38" s="2">
+    <row r="38">
+      <c r="A38" s="2" t="n">
         <v>43191</v>
       </c>
-      <c r="B38">
+      <c r="B38" t="n">
         <v>51.72000122070312</v>
       </c>
-      <c r="C38">
+      <c r="C38" t="n">
         <v>51.72000122070312</v>
       </c>
-      <c r="D38">
+      <c r="D38" t="n">
         <v>50.84000015258789</v>
       </c>
-      <c r="E38">
+      <c r="E38" t="n">
         <v>50.84000015258789</v>
       </c>
-      <c r="F38">
-        <v>41.90459823608398</v>
-      </c>
-      <c r="G38">
+      <c r="F38" t="n">
+        <v>41.90459442138672</v>
+      </c>
+      <c r="G38" t="n">
         <v>12825</v>
       </c>
-      <c r="H38">
+      <c r="H38" t="n">
         <v>-0.02902980213990236</v>
       </c>
-      <c r="I38">
+      <c r="I38" t="n">
         <v>0.05079746704815987</v>
       </c>
-      <c r="J38">
+      <c r="J38" t="n">
         <v>-0.2859550234314575</v>
       </c>
-      <c r="K38">
+      <c r="K38" t="n">
         <v>-0.2859550234314575</v>
       </c>
     </row>
-    <row r="39" spans="1:11">
-      <c r="A39" s="2">
+    <row r="39">
+      <c r="A39" s="2" t="n">
         <v>43221</v>
       </c>
-      <c r="B39">
+      <c r="B39" t="n">
         <v>47.47999954223633</v>
       </c>
-      <c r="C39">
+      <c r="C39" t="n">
         <v>47.57600021362305</v>
       </c>
-      <c r="D39">
+      <c r="D39" t="n">
         <v>47.27999877929688</v>
       </c>
-      <c r="E39">
+      <c r="E39" t="n">
         <v>47.40000152587891</v>
       </c>
-      <c r="F39">
-        <v>39.06919860839844</v>
-      </c>
-      <c r="G39">
+      <c r="F39" t="n">
+        <v>39.06919479370117</v>
+      </c>
+      <c r="G39" t="n">
         <v>10725</v>
       </c>
-      <c r="H39">
+      <c r="H39" t="n">
         <v>-0.06766323006263564</v>
       </c>
-      <c r="I39">
+      <c r="I39" t="n">
         <v>0.05116231763561396</v>
       </c>
-      <c r="J39">
+      <c r="J39" t="n">
         <v>-0.342397331828906</v>
       </c>
-      <c r="K39">
+      <c r="K39" t="n">
         <v>-0.342397331828906</v>
       </c>
     </row>
-    <row r="40" spans="1:11">
-      <c r="A40" s="2">
+    <row r="40">
+      <c r="A40" s="2" t="n">
         <v>43252</v>
       </c>
-      <c r="B40">
+      <c r="B40" t="n">
         <v>44.79999923706055</v>
       </c>
-      <c r="C40">
+      <c r="C40" t="n">
         <v>44.79999923706055</v>
       </c>
-      <c r="D40">
+      <c r="D40" t="n">
         <v>44.04000091552734</v>
       </c>
-      <c r="E40">
+      <c r="E40" t="n">
         <v>44.27999877929688</v>
       </c>
-      <c r="F40">
-        <v>36.49755096435547</v>
-      </c>
-      <c r="G40">
+      <c r="F40" t="n">
+        <v>36.4975471496582</v>
+      </c>
+      <c r="G40" t="n">
         <v>1950</v>
       </c>
-      <c r="H40">
+      <c r="H40" t="n">
         <v>-0.06582284063595667</v>
       </c>
-      <c r="I40">
+      <c r="I40" t="n">
         <v>0.05139361740185285</v>
       </c>
-      <c r="J40">
+      <c r="J40" t="n">
         <v>-0.333935070045711</v>
       </c>
-      <c r="K40">
+      <c r="K40" t="n">
         <v>-0.333935070045711</v>
       </c>
     </row>
-    <row r="41" spans="1:11">
-      <c r="A41" s="2">
+    <row r="41">
+      <c r="A41" s="2" t="n">
         <v>43282</v>
       </c>
-      <c r="B41">
+      <c r="B41" t="n">
         <v>46.40000152587891</v>
       </c>
-      <c r="C41">
+      <c r="C41" t="n">
         <v>46.61999893188477</v>
       </c>
-      <c r="D41">
+      <c r="D41" t="n">
         <v>45.43999862670898</v>
       </c>
-      <c r="E41">
+      <c r="E41" t="n">
         <v>46.08000183105469</v>
       </c>
-      <c r="F41">
+      <c r="F41" t="n">
         <v>37.98119354248047</v>
       </c>
-      <c r="G41">
+      <c r="G41" t="n">
         <v>17450</v>
       </c>
-      <c r="H41">
+      <c r="H41" t="n">
         <v>0.04065047654426324</v>
       </c>
-      <c r="I41">
+      <c r="I41" t="n">
         <v>0.05129529391983742</v>
       </c>
-      <c r="J41">
+      <c r="J41" t="n">
         <v>-0.2844720382104711</v>
       </c>
-      <c r="K41">
+      <c r="K41" t="n">
         <v>-0.2844720382104711</v>
       </c>
     </row>
-    <row r="42" spans="1:11">
-      <c r="A42" s="2">
+    <row r="42">
+      <c r="A42" s="2" t="n">
         <v>43313</v>
       </c>
-      <c r="B42">
+      <c r="B42" t="n">
         <v>43.40000152587891</v>
       </c>
-      <c r="C42">
+      <c r="C42" t="n">
         <v>44.59999847412109</v>
       </c>
-      <c r="D42">
+      <c r="D42" t="n">
         <v>43.40000152587891</v>
       </c>
-      <c r="E42">
+      <c r="E42" t="n">
         <v>44.20000076293945</v>
       </c>
-      <c r="F42">
-        <v>36.43161010742188</v>
-      </c>
-      <c r="G42">
+      <c r="F42" t="n">
+        <v>36.43161392211914</v>
+      </c>
+      <c r="G42" t="n">
         <v>3650</v>
       </c>
-      <c r="H42">
+      <c r="H42" t="n">
         <v>-0.04079863266950323</v>
       </c>
-      <c r="I42">
+      <c r="I42" t="n">
         <v>0.0509271926696273</v>
       </c>
-      <c r="J42">
+      <c r="J42" t="n">
         <v>-0.2352940943535682</v>
       </c>
-      <c r="K42">
+      <c r="K42" t="n">
         <v>-0.2352940943535682</v>
       </c>
     </row>
-    <row r="43" spans="1:11">
-      <c r="A43" s="2">
+    <row r="43">
+      <c r="A43" s="2" t="n">
         <v>43344</v>
       </c>
-      <c r="B43">
+      <c r="B43" t="n">
         <v>42.72000122070312</v>
       </c>
-      <c r="C43">
+      <c r="C43" t="n">
         <v>42.72000122070312</v>
       </c>
-      <c r="D43">
+      <c r="D43" t="n">
         <v>42.2400016784668</v>
       </c>
-      <c r="E43">
+      <c r="E43" t="n">
         <v>42.43999862670898</v>
       </c>
-      <c r="F43">
-        <v>34.98093414306641</v>
-      </c>
-      <c r="G43">
+      <c r="F43" t="n">
+        <v>34.98093795776367</v>
+      </c>
+      <c r="G43" t="n">
         <v>9100</v>
       </c>
-      <c r="H43">
+      <c r="H43" t="n">
         <v>-0.0398190521685734</v>
       </c>
-      <c r="I43">
+      <c r="I43" t="n">
         <v>0.05054529471659668</v>
       </c>
-      <c r="J43">
+      <c r="J43" t="n">
         <v>-0.2692837932381603</v>
       </c>
-      <c r="K43">
+      <c r="K43" t="n">
         <v>-0.2692837932381603</v>
       </c>
     </row>
-    <row r="44" spans="1:11">
-      <c r="A44" s="2">
+    <row r="44">
+      <c r="A44" s="2" t="n">
         <v>43374</v>
       </c>
-      <c r="B44">
+      <c r="B44" t="n">
         <v>40.59999847412109</v>
       </c>
-      <c r="C44">
+      <c r="C44" t="n">
         <v>40.59999847412109</v>
       </c>
-      <c r="D44">
+      <c r="D44" t="n">
         <v>39.6879997253418</v>
       </c>
-      <c r="E44">
+      <c r="E44" t="n">
         <v>40.04000091552734</v>
       </c>
-      <c r="F44">
-        <v>33.00275421142578</v>
-      </c>
-      <c r="G44">
+      <c r="F44" t="n">
+        <v>33.00275039672852</v>
+      </c>
+      <c r="G44" t="n">
         <v>4200</v>
       </c>
-      <c r="H44">
+      <c r="H44" t="n">
         <v>-0.05655037202737412</v>
       </c>
-      <c r="I44">
+      <c r="I44" t="n">
         <v>0.05048603089481354</v>
       </c>
-      <c r="J44">
+      <c r="J44" t="n">
         <v>-0.2596153927543891</v>
       </c>
-      <c r="K44">
+      <c r="K44" t="n">
         <v>-0.2596153927543891</v>
       </c>
     </row>
-    <row r="45" spans="1:11">
-      <c r="A45" s="2">
+    <row r="45">
+      <c r="A45" s="2" t="n">
         <v>43405</v>
       </c>
-      <c r="B45">
+      <c r="B45" t="n">
         <v>38.56000137329102</v>
       </c>
-      <c r="C45">
+      <c r="C45" t="n">
         <v>38.59999847412109</v>
       </c>
-      <c r="D45">
+      <c r="D45" t="n">
         <v>38</v>
       </c>
-      <c r="E45">
+      <c r="E45" t="n">
         <v>38.59999847412109</v>
       </c>
-      <c r="F45">
-        <v>31.81583976745605</v>
-      </c>
-      <c r="G45">
+      <c r="F45" t="n">
+        <v>31.81584167480469</v>
+      </c>
+      <c r="G45" t="n">
         <v>7350</v>
       </c>
-      <c r="H45">
+      <c r="H45" t="n">
         <v>-0.03596409611588758</v>
       </c>
-      <c r="I45">
+      <c r="I45" t="n">
         <v>0.0500497054270508</v>
       </c>
-      <c r="J45">
+      <c r="J45" t="n">
         <v>-0.2883481327500541</v>
       </c>
-      <c r="K45">
+      <c r="K45" t="n">
         <v>-0.2883481327500541</v>
       </c>
     </row>
-    <row r="46" spans="1:11">
-      <c r="A46" s="2">
+    <row r="46">
+      <c r="A46" s="2" t="n">
         <v>43435</v>
       </c>
-      <c r="B46">
+      <c r="B46" t="n">
         <v>32</v>
       </c>
-      <c r="C46">
+      <c r="C46" t="n">
         <v>32.79999923706055</v>
       </c>
-      <c r="D46">
+      <c r="D46" t="n">
         <v>31.71999931335449</v>
       </c>
-      <c r="E46">
+      <c r="E46" t="n">
         <v>32.27999877929688</v>
       </c>
-      <c r="F46">
-        <v>28.0931282043457</v>
-      </c>
-      <c r="G46">
+      <c r="F46" t="n">
+        <v>28.09312629699707</v>
+      </c>
+      <c r="G46" t="n">
         <v>18425</v>
       </c>
-      <c r="H46">
+      <c r="H46" t="n">
         <v>-0.1637305685144362</v>
       </c>
-      <c r="I46">
+      <c r="I46" t="n">
         <v>0.05464395217569017</v>
       </c>
-      <c r="J46">
+      <c r="J46" t="n">
         <v>-0.3481421954583995</v>
       </c>
-      <c r="K46">
+      <c r="K46" t="n">
         <v>-0.3481421954583995</v>
       </c>
     </row>
-    <row r="47" spans="1:11">
-      <c r="A47" s="2">
+    <row r="47">
+      <c r="A47" s="2" t="n">
         <v>43466</v>
       </c>
-      <c r="B47">
+      <c r="B47" t="n">
         <v>36</v>
       </c>
-      <c r="C47">
+      <c r="C47" t="n">
         <v>36.18000030517578</v>
       </c>
-      <c r="D47">
+      <c r="D47" t="n">
         <v>35.85200119018555</v>
       </c>
-      <c r="E47">
+      <c r="E47" t="n">
         <v>36.18000030517578</v>
       </c>
-      <c r="F47">
+      <c r="F47" t="n">
         <v>31.48727798461914</v>
       </c>
-      <c r="G47">
+      <c r="G47" t="n">
         <v>1975</v>
       </c>
-      <c r="H47">
+      <c r="H47" t="n">
         <v>0.1208178957051329</v>
       </c>
-      <c r="I47">
+      <c r="I47" t="n">
         <v>0.05759519960349769</v>
       </c>
-      <c r="J47">
+      <c r="J47" t="n">
         <v>-0.311119573689426</v>
       </c>
-      <c r="K47">
+      <c r="K47" t="n">
         <v>-0.311119573689426</v>
       </c>
     </row>
-    <row r="48" spans="1:11">
-      <c r="A48" s="2">
+    <row r="48">
+      <c r="A48" s="2" t="n">
         <v>43497</v>
       </c>
-      <c r="B48">
+      <c r="B48" t="n">
         <v>34.72000122070312</v>
       </c>
-      <c r="C48">
+      <c r="C48" t="n">
         <v>35.68000030517578</v>
       </c>
-      <c r="D48">
+      <c r="D48" t="n">
         <v>34.72000122070312</v>
       </c>
-      <c r="E48">
+      <c r="E48" t="n">
         <v>35.56000137329102</v>
       </c>
-      <c r="F48">
-        <v>30.94769668579102</v>
-      </c>
-      <c r="G48">
+      <c r="F48" t="n">
+        <v>30.94769477844238</v>
+      </c>
+      <c r="G48" t="n">
         <v>3175</v>
       </c>
-      <c r="H48">
+      <c r="H48" t="n">
         <v>-0.01713650985779758</v>
       </c>
-      <c r="I48">
+      <c r="I48" t="n">
         <v>0.05696079116406125</v>
       </c>
-      <c r="J48">
+      <c r="J48" t="n">
         <v>-0.3092462764278754</v>
       </c>
-      <c r="K48">
+      <c r="K48" t="n">
         <v>-0.3092462764278754</v>
       </c>
     </row>
-    <row r="49" spans="1:11">
-      <c r="A49" s="2">
+    <row r="49">
+      <c r="A49" s="2" t="n">
         <v>43525</v>
       </c>
-      <c r="B49">
+      <c r="B49" t="n">
         <v>34.40000152587891</v>
       </c>
-      <c r="C49">
+      <c r="C49" t="n">
         <v>34.40000152587891</v>
       </c>
-      <c r="D49">
+      <c r="D49" t="n">
         <v>34.16799926757812</v>
       </c>
-      <c r="E49">
+      <c r="E49" t="n">
         <v>34.31999969482422</v>
       </c>
-      <c r="F49">
+      <c r="F49" t="n">
         <v>29.8685302734375</v>
       </c>
-      <c r="G49">
+      <c r="G49" t="n">
         <v>1125</v>
       </c>
-      <c r="H49">
+      <c r="H49" t="n">
         <v>-0.03487068702416185</v>
       </c>
-      <c r="I49">
+      <c r="I49" t="n">
         <v>0.05645149801501883</v>
       </c>
-      <c r="J49">
+      <c r="J49" t="n">
         <v>-0.3445378285950753</v>
       </c>
-      <c r="K49">
+      <c r="K49" t="n">
         <v>-0.3445378285950753</v>
       </c>
     </row>
-    <row r="50" spans="1:11">
-      <c r="A50" s="2">
+    <row r="50">
+      <c r="A50" s="2" t="n">
         <v>43556</v>
       </c>
-      <c r="B50">
+      <c r="B50" t="n">
         <v>32.68000030517578</v>
       </c>
-      <c r="C50">
+      <c r="C50" t="n">
         <v>32.97999954223633</v>
       </c>
-      <c r="D50">
+      <c r="D50" t="n">
         <v>32.63999938964844</v>
       </c>
-      <c r="E50">
+      <c r="E50" t="n">
         <v>32.91999816894531</v>
       </c>
-      <c r="F50">
-        <v>28.65011215209961</v>
-      </c>
-      <c r="G50">
+      <c r="F50" t="n">
+        <v>28.65011596679688</v>
+      </c>
+      <c r="G50" t="n">
         <v>7525</v>
       </c>
-      <c r="H50">
+      <c r="H50" t="n">
         <v>-0.04079258561561239</v>
       </c>
-      <c r="I50">
+      <c r="I50" t="n">
         <v>0.05601425001986119</v>
       </c>
-      <c r="J50">
+      <c r="J50" t="n">
         <v>-0.3524784014527663</v>
       </c>
-      <c r="K50">
+      <c r="K50" t="n">
         <v>-0.3524784014527663</v>
       </c>
     </row>
-    <row r="51" spans="1:11">
-      <c r="A51" s="2">
+    <row r="51">
+      <c r="A51" s="2" t="n">
         <v>43586</v>
       </c>
-      <c r="B51">
+      <c r="B51" t="n">
         <v>30.63999938964844</v>
       </c>
-      <c r="C51">
+      <c r="C51" t="n">
         <v>30.85199928283691</v>
       </c>
-      <c r="D51">
+      <c r="D51" t="n">
         <v>30.04000091552734</v>
       </c>
-      <c r="E51">
+      <c r="E51" t="n">
         <v>30.31999969482422</v>
       </c>
-      <c r="F51">
+      <c r="F51" t="n">
         <v>26.38734817504883</v>
       </c>
-      <c r="G51">
+      <c r="G51" t="n">
         <v>3350</v>
       </c>
-      <c r="H51">
+      <c r="H51" t="n">
         <v>-0.07897930190572644</v>
       </c>
-      <c r="I51">
+      <c r="I51" t="n">
         <v>0.05625940934096618</v>
       </c>
-      <c r="J51">
+      <c r="J51" t="n">
         <v>-0.3603375797726408</v>
       </c>
-      <c r="K51">
+      <c r="K51" t="n">
         <v>-0.3603375797726408</v>
       </c>
     </row>
-    <row r="52" spans="1:11">
-      <c r="A52" s="2">
+    <row r="52">
+      <c r="A52" s="2" t="n">
         <v>43617</v>
       </c>
-      <c r="B52">
+      <c r="B52" t="n">
         <v>25.95999908447266</v>
       </c>
-      <c r="C52">
+      <c r="C52" t="n">
         <v>26.65200042724609</v>
       </c>
-      <c r="D52">
+      <c r="D52" t="n">
         <v>25.95999908447266</v>
       </c>
-      <c r="E52">
+      <c r="E52" t="n">
         <v>26.39999961853027</v>
       </c>
-      <c r="F52">
+      <c r="F52" t="n">
         <v>23.4567756652832</v>
       </c>
-      <c r="G52">
+      <c r="G52" t="n">
         <v>9650</v>
       </c>
-      <c r="H52">
+      <c r="H52" t="n">
         <v>-0.1292876027621831</v>
       </c>
-      <c r="I52">
+      <c r="I52" t="n">
         <v>0.05806457542868738</v>
       </c>
-      <c r="J52">
+      <c r="J52" t="n">
         <v>-0.403794030119224</v>
       </c>
-      <c r="K52">
+      <c r="K52" t="n">
         <v>-0.403794030119224</v>
       </c>
     </row>
-    <row r="53" spans="1:11">
-      <c r="A53" s="2">
+    <row r="53">
+      <c r="A53" s="2" t="n">
         <v>43647</v>
       </c>
-      <c r="B53">
+      <c r="B53" t="n">
         <v>24.20000076293945</v>
       </c>
-      <c r="C53">
+      <c r="C53" t="n">
         <v>24.61199951171875</v>
       </c>
-      <c r="D53">
+      <c r="D53" t="n">
         <v>24.20000076293945</v>
       </c>
-      <c r="E53">
+      <c r="E53" t="n">
         <v>24.39999961853027</v>
       </c>
-      <c r="F53">
-        <v>21.67974662780762</v>
-      </c>
-      <c r="G53">
+      <c r="F53" t="n">
+        <v>21.67974853515625</v>
+      </c>
+      <c r="G53" t="n">
         <v>5675</v>
       </c>
-      <c r="H53">
+      <c r="H53" t="n">
         <v>-0.07575757685224327</v>
       </c>
-      <c r="I53">
+      <c r="I53" t="n">
         <v>0.05810274259502364</v>
       </c>
-      <c r="J53">
+      <c r="J53" t="n">
         <v>-0.4704861404305243</v>
       </c>
-      <c r="K53">
+      <c r="K53" t="n">
         <v>-0.4704861404305243</v>
       </c>
     </row>
-    <row r="54" spans="1:11">
-      <c r="A54" s="2">
+    <row r="54">
+      <c r="A54" s="2" t="n">
         <v>43678</v>
       </c>
-      <c r="B54">
+      <c r="B54" t="n">
         <v>23.20000076293945</v>
       </c>
-      <c r="C54">
+      <c r="C54" t="n">
         <v>23.36000061035156</v>
       </c>
-      <c r="D54">
+      <c r="D54" t="n">
         <v>22.31999969482422</v>
       </c>
-      <c r="E54">
+      <c r="E54" t="n">
         <v>22.47999954223633</v>
       </c>
-      <c r="F54">
-        <v>19.97380065917969</v>
-      </c>
-      <c r="G54">
+      <c r="F54" t="n">
+        <v>19.97380256652832</v>
+      </c>
+      <c r="G54" t="n">
         <v>24325</v>
       </c>
-      <c r="H54">
+      <c r="H54" t="n">
         <v>-0.07868852894718181</v>
       </c>
-      <c r="I54">
+      <c r="I54" t="n">
         <v>0.05817503557118706</v>
       </c>
-      <c r="J54">
+      <c r="J54" t="n">
         <v>-0.4914027340677057</v>
       </c>
-      <c r="K54">
+      <c r="K54" t="n">
         <v>-0.4914027340677057</v>
       </c>
     </row>
-    <row r="55" spans="1:11">
-      <c r="A55" s="2">
+    <row r="55">
+      <c r="A55" s="2" t="n">
         <v>43709</v>
       </c>
-      <c r="B55">
+      <c r="B55" t="n">
         <v>24.8799991607666</v>
       </c>
-      <c r="C55">
+      <c r="C55" t="n">
         <v>25.07999992370605</v>
       </c>
-      <c r="D55">
+      <c r="D55" t="n">
         <v>24.79999923706055</v>
       </c>
-      <c r="E55">
+      <c r="E55" t="n">
         <v>24.84000015258789</v>
       </c>
-      <c r="F55">
+      <c r="F55" t="n">
         <v>22.07069396972656</v>
       </c>
-      <c r="G55">
+      <c r="G55" t="n">
         <v>11775</v>
       </c>
-      <c r="H55">
+      <c r="H55" t="n">
         <v>0.1049822356943335</v>
       </c>
-      <c r="I55">
+      <c r="I55" t="n">
         <v>0.0600231722383133</v>
       </c>
-      <c r="J55">
+      <c r="J55" t="n">
         <v>-0.4147030877386692</v>
       </c>
-      <c r="K55">
+      <c r="K55" t="n">
         <v>-0.4147030877386692</v>
       </c>
     </row>
-    <row r="56" spans="1:11">
-      <c r="A56" s="2">
+    <row r="56">
+      <c r="A56" s="2" t="n">
         <v>43739</v>
       </c>
-      <c r="B56">
+      <c r="B56" t="n">
         <v>26.23999977111816</v>
       </c>
-      <c r="C56">
+      <c r="C56" t="n">
         <v>26.47999954223633</v>
       </c>
-      <c r="D56">
+      <c r="D56" t="n">
         <v>26.04000091552734</v>
       </c>
-      <c r="E56">
+      <c r="E56" t="n">
         <v>26.20000076293945</v>
       </c>
-      <c r="F56">
+      <c r="F56" t="n">
         <v>23.27907562255859</v>
       </c>
-      <c r="G56">
+      <c r="G56" t="n">
         <v>12450</v>
       </c>
-      <c r="H56">
+      <c r="H56" t="n">
         <v>0.05475042681148601</v>
       </c>
-      <c r="I56">
+      <c r="I56" t="n">
         <v>0.06021336512309749</v>
       </c>
-      <c r="J56">
+      <c r="J56" t="n">
         <v>-0.3456543415617355</v>
       </c>
-      <c r="K56">
+      <c r="K56" t="n">
         <v>-0.3456543415617355</v>
       </c>
     </row>
-    <row r="57" spans="1:11">
-      <c r="A57" s="2">
+    <row r="57">
+      <c r="A57" s="2" t="n">
         <v>43770</v>
       </c>
-      <c r="B57">
+      <c r="B57" t="n">
         <v>30.39999961853027</v>
       </c>
-      <c r="C57">
+      <c r="C57" t="n">
         <v>30.79999923706055</v>
       </c>
-      <c r="D57">
+      <c r="D57" t="n">
         <v>30.15999984741211</v>
       </c>
-      <c r="E57">
+      <c r="E57" t="n">
         <v>30.60000038146973</v>
       </c>
-      <c r="F57">
-        <v>27.18853759765625</v>
-      </c>
-      <c r="G57">
+      <c r="F57" t="n">
+        <v>27.18853569030762</v>
+      </c>
+      <c r="G57" t="n">
         <v>13775</v>
       </c>
-      <c r="H57">
+      <c r="H57" t="n">
         <v>0.1679389118474448</v>
       </c>
-      <c r="I57">
+      <c r="I57" t="n">
         <v>0.06450046734404465</v>
       </c>
-      <c r="J57">
+      <c r="J57" t="n">
         <v>-0.2072538447900424</v>
       </c>
-      <c r="K57">
+      <c r="K57" t="n">
         <v>-0.2072538447900424</v>
       </c>
     </row>
-    <row r="58" spans="1:11">
-      <c r="A58" s="2">
+    <row r="58">
+      <c r="A58" s="2" t="n">
         <v>43800</v>
       </c>
-      <c r="B58">
+      <c r="B58" t="n">
         <v>31.36000061035156</v>
       </c>
-      <c r="C58">
+      <c r="C58" t="n">
         <v>31.76000022888184</v>
       </c>
-      <c r="D58">
+      <c r="D58" t="n">
         <v>31.07999992370605</v>
       </c>
-      <c r="E58">
+      <c r="E58" t="n">
         <v>31.36000061035156</v>
       </c>
-      <c r="F58">
+      <c r="F58" t="n">
         <v>28.35189247131348</v>
       </c>
-      <c r="G58">
+      <c r="G58" t="n">
         <v>30375</v>
       </c>
-      <c r="H58">
+      <c r="H58" t="n">
         <v>0.0248366084773668</v>
       </c>
-      <c r="I58">
+      <c r="I58" t="n">
         <v>0.06408744083706812</v>
       </c>
-      <c r="J58">
+      <c r="J58" t="n">
         <v>-0.02850056393234324</v>
       </c>
-      <c r="K58">
+      <c r="K58" t="n">
         <v>-0.02850056393234324</v>
       </c>
     </row>
-    <row r="59" spans="1:11">
-      <c r="A59" s="2">
+    <row r="59">
+      <c r="A59" s="2" t="n">
         <v>43831</v>
       </c>
-      <c r="B59">
+      <c r="B59" t="n">
         <v>31.55999946594238</v>
       </c>
-      <c r="C59">
+      <c r="C59" t="n">
         <v>31.55999946594238</v>
       </c>
-      <c r="D59">
+      <c r="D59" t="n">
         <v>31</v>
       </c>
-      <c r="E59">
+      <c r="E59" t="n">
         <v>31.04000091552734</v>
       </c>
-      <c r="F59">
-        <v>28.06258964538574</v>
-      </c>
-      <c r="G59">
+      <c r="F59" t="n">
+        <v>28.06258773803711</v>
+      </c>
+      <c r="G59" t="n">
         <v>16825</v>
       </c>
-      <c r="H59">
+      <c r="H59" t="n">
         <v>-0.01020407170268323</v>
       </c>
-      <c r="I59">
+      <c r="I59" t="n">
         <v>0.06351265722424189</v>
       </c>
-      <c r="J59">
+      <c r="J59" t="n">
         <v>-0.1420674225067137</v>
       </c>
-      <c r="K59">
+      <c r="K59" t="n">
         <v>-0.1420674225067137</v>
       </c>
     </row>
-    <row r="60" spans="1:11">
-      <c r="A60" s="2">
+    <row r="60">
+      <c r="A60" s="2" t="n">
         <v>43862</v>
       </c>
-      <c r="B60">
+      <c r="B60" t="n">
         <v>27.36000061035156</v>
       </c>
-      <c r="C60">
+      <c r="C60" t="n">
         <v>27.62400054931641</v>
       </c>
-      <c r="D60">
+      <c r="D60" t="n">
         <v>26.47999954223633</v>
       </c>
-      <c r="E60">
+      <c r="E60" t="n">
         <v>26.92000007629395</v>
       </c>
-      <c r="F60">
+      <c r="F60" t="n">
         <v>24.33778381347656</v>
       </c>
-      <c r="G60">
+      <c r="G60" t="n">
         <v>48150</v>
       </c>
-      <c r="H60">
+      <c r="H60" t="n">
         <v>-0.1327319818851044</v>
       </c>
-      <c r="I60">
+      <c r="I60" t="n">
         <v>0.06498131962162965</v>
       </c>
-      <c r="J60">
+      <c r="J60" t="n">
         <v>-0.242969655886643</v>
       </c>
-      <c r="K60">
+      <c r="K60" t="n">
         <v>-0.242969655886643</v>
       </c>
     </row>
-    <row r="61" spans="1:11">
-      <c r="A61" s="2">
+    <row r="61">
+      <c r="A61" s="2" t="n">
         <v>43891</v>
       </c>
-      <c r="B61">
+      <c r="B61" t="n">
         <v>20</v>
       </c>
-      <c r="C61">
+      <c r="C61" t="n">
         <v>20</v>
       </c>
-      <c r="D61">
+      <c r="D61" t="n">
         <v>19.23999977111816</v>
       </c>
-      <c r="E61">
+      <c r="E61" t="n">
         <v>19.44000053405762</v>
       </c>
-      <c r="F61">
-        <v>17.57527923583984</v>
-      </c>
-      <c r="G61">
+      <c r="F61" t="n">
+        <v>17.57528114318848</v>
+      </c>
+      <c r="G61" t="n">
         <v>8975</v>
       </c>
-      <c r="H61">
+      <c r="H61" t="n">
         <v>-0.2778603091024245</v>
       </c>
-      <c r="I61">
+      <c r="I61" t="n">
         <v>0.07311802886400362</v>
       </c>
-      <c r="J61">
+      <c r="J61" t="n">
         <v>-0.4335664129685481</v>
       </c>
-      <c r="K61">
+      <c r="K61" t="n">
         <v>-0.4335664129685481</v>
       </c>
     </row>
-    <row r="62" spans="1:11">
-      <c r="A62" s="2">
+    <row r="62">
+      <c r="A62" s="2" t="n">
         <v>43922</v>
       </c>
-      <c r="B62">
+      <c r="B62" t="n">
         <v>23.65999984741211</v>
       </c>
-      <c r="C62">
+      <c r="C62" t="n">
         <v>23.95499992370605</v>
       </c>
-      <c r="D62">
+      <c r="D62" t="n">
         <v>23.65999984741211</v>
       </c>
-      <c r="E62">
+      <c r="E62" t="n">
         <v>23.80999946594238</v>
       </c>
-      <c r="F62">
+      <c r="F62" t="n">
         <v>21.52610015869141</v>
       </c>
-      <c r="G62">
+      <c r="G62" t="n">
         <v>7600</v>
       </c>
-      <c r="H62">
+      <c r="H62" t="n">
         <v>0.2247941775633602</v>
       </c>
-      <c r="I62">
+      <c r="I62" t="n">
         <v>0.07891384404016334</v>
       </c>
-      <c r="J62">
+      <c r="J62" t="n">
         <v>-0.2767314462245851</v>
       </c>
-      <c r="K62">
+      <c r="K62" t="n">
         <v>-0.2767314462245851</v>
       </c>
     </row>
-    <row r="63" spans="1:11">
-      <c r="A63" s="2">
+    <row r="63">
+      <c r="A63" s="2" t="n">
         <v>43952</v>
       </c>
-      <c r="B63">
+      <c r="B63" t="n">
         <v>23.40999984741211</v>
       </c>
-      <c r="C63">
+      <c r="C63" t="n">
         <v>23.44000053405762</v>
       </c>
-      <c r="D63">
+      <c r="D63" t="n">
         <v>23.34000015258789</v>
       </c>
-      <c r="E63">
+      <c r="E63" t="n">
         <v>23.39999961853027</v>
       </c>
-      <c r="F63">
+      <c r="F63" t="n">
         <v>21.15542984008789</v>
       </c>
-      <c r="G63">
+      <c r="G63" t="n">
         <v>9600</v>
       </c>
-      <c r="H63">
+      <c r="H63" t="n">
         <v>-0.0172196495845609</v>
       </c>
-      <c r="I63">
+      <c r="I63" t="n">
         <v>0.07825565537252915</v>
       </c>
-      <c r="J63">
+      <c r="J63" t="n">
         <v>-0.2282321947871004</v>
       </c>
-      <c r="K63">
+      <c r="K63" t="n">
         <v>-0.2282321947871004</v>
       </c>
     </row>
-    <row r="64" spans="1:11">
-      <c r="A64" s="2">
+    <row r="64">
+      <c r="A64" s="2" t="n">
         <v>43983</v>
       </c>
-      <c r="B64">
+      <c r="B64" t="n">
         <v>22.45999908447266</v>
       </c>
-      <c r="C64">
+      <c r="C64" t="n">
         <v>22.45999908447266</v>
       </c>
-      <c r="D64">
+      <c r="D64" t="n">
         <v>22.3700008392334</v>
       </c>
-      <c r="E64">
+      <c r="E64" t="n">
         <v>22.40999984741211</v>
       </c>
-      <c r="F64">
+      <c r="F64" t="n">
         <v>20.48553848266602</v>
       </c>
-      <c r="G64">
+      <c r="G64" t="n">
         <v>2000</v>
       </c>
-      <c r="H64">
+      <c r="H64" t="n">
         <v>-0.04230768321612244</v>
       </c>
-      <c r="I64">
+      <c r="I64" t="n">
         <v>0.07770246281960644</v>
       </c>
-      <c r="J64">
+      <c r="J64" t="n">
         <v>-0.1511363571504587</v>
       </c>
-      <c r="K64">
+      <c r="K64" t="n">
         <v>-0.1511363571504587</v>
       </c>
     </row>
-    <row r="65" spans="1:11">
-      <c r="A65" s="2">
+    <row r="65">
+      <c r="A65" s="2" t="n">
         <v>44013</v>
       </c>
-      <c r="B65">
+      <c r="B65" t="n">
         <v>26.81999969482422</v>
       </c>
-      <c r="C65">
+      <c r="C65" t="n">
         <v>26.81999969482422</v>
       </c>
-      <c r="D65">
+      <c r="D65" t="n">
         <v>26.22500038146973</v>
       </c>
-      <c r="E65">
+      <c r="E65" t="n">
         <v>26.3799991607666</v>
       </c>
-      <c r="F65">
+      <c r="F65" t="n">
         <v>24.1146125793457</v>
       </c>
-      <c r="G65">
+      <c r="G65" t="n">
         <v>4600</v>
       </c>
-      <c r="H65">
+      <c r="H65" t="n">
         <v>0.177153027237211</v>
       </c>
-      <c r="I65">
+      <c r="I65" t="n">
         <v>0.08071824250324169</v>
       </c>
-      <c r="J65">
+      <c r="J65" t="n">
         <v>0.08114752349146115</v>
       </c>
-      <c r="K65">
+      <c r="K65" t="n">
         <v>0.08114752349146115</v>
       </c>
     </row>
-    <row r="66" spans="1:11">
-      <c r="A66" s="2">
+    <row r="66">
+      <c r="A66" s="2" t="n">
         <v>44044</v>
       </c>
-      <c r="B66">
+      <c r="B66" t="n">
         <v>26.98999977111816</v>
       </c>
-      <c r="C66">
+      <c r="C66" t="n">
         <v>27</v>
       </c>
-      <c r="D66">
+      <c r="D66" t="n">
         <v>26.78000068664551</v>
       </c>
-      <c r="E66">
+      <c r="E66" t="n">
         <v>26.94000053405762</v>
       </c>
-      <c r="F66">
-        <v>24.62652587890625</v>
-      </c>
-      <c r="G66">
+      <c r="F66" t="n">
+        <v>24.62652397155762</v>
+      </c>
+      <c r="G66" t="n">
         <v>11900</v>
       </c>
-      <c r="H66">
+      <c r="H66" t="n">
         <v>0.02122825591760713</v>
       </c>
-      <c r="I66">
+      <c r="I66" t="n">
         <v>0.08017123424175482</v>
       </c>
-      <c r="J66">
+      <c r="J66" t="n">
         <v>0.198398624672641</v>
       </c>
-      <c r="K66">
+      <c r="K66" t="n">
         <v>0.198398624672641</v>
       </c>
     </row>
-    <row r="67" spans="1:11">
-      <c r="A67" s="2">
+    <row r="67">
+      <c r="A67" s="2" t="n">
         <v>44075</v>
       </c>
-      <c r="B67">
+      <c r="B67" t="n">
         <v>26.51000022888184</v>
       </c>
-      <c r="C67">
+      <c r="C67" t="n">
         <v>26.63999938964844</v>
       </c>
-      <c r="D67">
+      <c r="D67" t="n">
         <v>26.51000022888184</v>
       </c>
-      <c r="E67">
+      <c r="E67" t="n">
         <v>26.6200008392334</v>
       </c>
-      <c r="F67">
+      <c r="F67" t="n">
         <v>24.33400535583496</v>
       </c>
-      <c r="G67">
+      <c r="G67" t="n">
         <v>11200</v>
       </c>
-      <c r="H67">
+      <c r="H67" t="n">
         <v>-0.01187823639497243</v>
       </c>
-      <c r="I67">
+      <c r="I67" t="n">
         <v>0.07954289477728249</v>
       </c>
-      <c r="J67">
+      <c r="J67" t="n">
         <v>0.07165864233942298</v>
       </c>
-      <c r="K67">
+      <c r="K67" t="n">
         <v>0.07165864233942298</v>
       </c>
     </row>
-    <row r="68" spans="1:11">
-      <c r="A68" s="2">
+    <row r="68">
+      <c r="A68" s="2" t="n">
         <v>44105</v>
       </c>
-      <c r="B68">
+      <c r="B68" t="n">
         <v>27.02000045776367</v>
       </c>
-      <c r="C68">
+      <c r="C68" t="n">
         <v>27.02000045776367</v>
       </c>
-      <c r="D68">
+      <c r="D68" t="n">
         <v>26.79000091552734</v>
       </c>
-      <c r="E68">
+      <c r="E68" t="n">
         <v>26.89999961853027</v>
       </c>
-      <c r="F68">
-        <v>24.5899600982666</v>
-      </c>
-      <c r="G68">
+      <c r="F68" t="n">
+        <v>24.58995819091797</v>
+      </c>
+      <c r="G68" t="n">
         <v>1100</v>
       </c>
-      <c r="H68">
+      <c r="H68" t="n">
         <v>0.01051836102439951</v>
       </c>
-      <c r="I68">
+      <c r="I68" t="n">
         <v>0.07896796215362541</v>
       </c>
-      <c r="J68">
+      <c r="J68" t="n">
         <v>0.02671751279415946</v>
       </c>
-      <c r="K68">
+      <c r="K68" t="n">
         <v>0.02671751279415946</v>
       </c>
     </row>
-    <row r="69" spans="1:11">
-      <c r="A69" s="2">
+    <row r="69">
+      <c r="A69" s="2" t="n">
         <v>44136</v>
       </c>
-      <c r="B69">
+      <c r="B69" t="n">
         <v>28.01000022888184</v>
       </c>
-      <c r="C69">
+      <c r="C69" t="n">
         <v>28.23999977111816</v>
       </c>
-      <c r="D69">
+      <c r="D69" t="n">
         <v>27.92000007629395</v>
       </c>
-      <c r="E69">
+      <c r="E69" t="n">
         <v>28.10000038146973</v>
       </c>
-      <c r="F69">
+      <c r="F69" t="n">
         <v>25.68690872192383</v>
       </c>
-      <c r="G69">
+      <c r="G69" t="n">
         <v>9600</v>
       </c>
-      <c r="H69">
+      <c r="H69" t="n">
         <v>0.0446096944221821</v>
       </c>
-      <c r="I69">
+      <c r="I69" t="n">
         <v>0.07864487382483713</v>
       </c>
-      <c r="J69">
+      <c r="J69" t="n">
         <v>-0.08169934538673773</v>
       </c>
-      <c r="K69">
+      <c r="K69" t="n">
         <v>-0.08169934538673773</v>
       </c>
     </row>
-    <row r="70" spans="1:11">
-      <c r="A70" s="2">
+    <row r="70">
+      <c r="A70" s="2" t="n">
         <v>44166</v>
       </c>
-      <c r="B70">
+      <c r="B70" t="n">
         <v>29</v>
       </c>
-      <c r="C70">
+      <c r="C70" t="n">
         <v>29</v>
       </c>
-      <c r="D70">
+      <c r="D70" t="n">
         <v>28.78000068664551</v>
       </c>
-      <c r="E70">
+      <c r="E70" t="n">
         <v>28.84600067138672</v>
       </c>
-      <c r="F70">
+      <c r="F70" t="n">
         <v>26.80708312988281</v>
       </c>
-      <c r="G70">
+      <c r="G70" t="n">
         <v>1700</v>
       </c>
-      <c r="H70">
+      <c r="H70" t="n">
         <v>0.02654805266155558</v>
       </c>
-      <c r="I70">
+      <c r="I70" t="n">
         <v>0.0781721060932775</v>
       </c>
-      <c r="J70">
+      <c r="J70" t="n">
         <v>-0.08016581282001001</v>
       </c>
-      <c r="K70">
+      <c r="K70" t="n">
         <v>-0.08016581282001001</v>
       </c>
     </row>
-    <row r="71" spans="1:11">
-      <c r="A71" s="2">
+    <row r="71">
+      <c r="A71" s="2" t="n">
         <v>44197</v>
       </c>
-      <c r="B71">
+      <c r="B71" t="n">
         <v>29.97999954223633</v>
       </c>
-      <c r="C71">
+      <c r="C71" t="n">
         <v>30.10000038146973</v>
       </c>
-      <c r="D71">
+      <c r="D71" t="n">
         <v>29.68499946594238</v>
       </c>
-      <c r="E71">
+      <c r="E71" t="n">
         <v>29.8700008392334</v>
       </c>
-      <c r="F71">
+      <c r="F71" t="n">
         <v>27.75870513916016</v>
       </c>
-      <c r="G71">
+      <c r="G71" t="n">
         <v>3600</v>
       </c>
-      <c r="H71">
+      <c r="H71" t="n">
         <v>0.03549886098638333</v>
       </c>
-      <c r="I71">
+      <c r="I71" t="n">
         <v>0.07777242184420836</v>
       </c>
-      <c r="J71">
+      <c r="J71" t="n">
         <v>-0.03769330031522866</v>
       </c>
-      <c r="K71">
+      <c r="K71" t="n">
         <v>-0.03769330031522866</v>
       </c>
     </row>
-    <row r="72" spans="1:11">
-      <c r="A72" s="2">
+    <row r="72">
+      <c r="A72" s="2" t="n">
         <v>44228</v>
       </c>
-      <c r="B72">
+      <c r="B72" t="n">
         <v>30.69000053405762</v>
       </c>
-      <c r="C72">
+      <c r="C72" t="n">
         <v>30.81999969482422</v>
       </c>
-      <c r="D72">
+      <c r="D72" t="n">
         <v>30.6609992980957</v>
       </c>
-      <c r="E72">
+      <c r="E72" t="n">
         <v>30.73999977111816</v>
       </c>
-      <c r="F72">
+      <c r="F72" t="n">
         <v>28.56720924377441</v>
       </c>
-      <c r="G72">
+      <c r="G72" t="n">
         <v>2600</v>
       </c>
-      <c r="H72">
+      <c r="H72" t="n">
         <v>0.02912617701510234</v>
       </c>
-      <c r="I72">
+      <c r="I72" t="n">
         <v>0.07733052934691227</v>
       </c>
-      <c r="J72">
+      <c r="J72" t="n">
         <v>0.1419019199107712</v>
       </c>
-      <c r="K72">
+      <c r="K72" t="n">
         <v>0.1419019199107712</v>
       </c>
     </row>
-    <row r="73" spans="1:11">
-      <c r="A73" s="2">
+    <row r="73">
+      <c r="A73" s="2" t="n">
         <v>44256</v>
       </c>
-      <c r="B73">
+      <c r="B73" t="n">
         <v>30.13999938964844</v>
       </c>
-      <c r="C73">
+      <c r="C73" t="n">
         <v>30.38599967956543</v>
       </c>
-      <c r="D73">
+      <c r="D73" t="n">
         <v>30.13999938964844</v>
       </c>
-      <c r="E73">
+      <c r="E73" t="n">
         <v>30.17000007629395</v>
       </c>
-      <c r="F73">
+      <c r="F73" t="n">
         <v>28.03749847412109</v>
       </c>
-      <c r="G73">
+      <c r="G73" t="n">
         <v>5700</v>
       </c>
-      <c r="H73">
+      <c r="H73" t="n">
         <v>-0.01854260569512967</v>
       </c>
-      <c r="I73">
+      <c r="I73" t="n">
         <v>0.07678853577104469</v>
       </c>
-      <c r="J73">
+      <c r="J73" t="n">
         <v>0.5519546937994197</v>
       </c>
-      <c r="K73">
+      <c r="K73" t="n">
         <v>0.5519546937994197</v>
       </c>
     </row>
-    <row r="74" spans="1:11">
-      <c r="A74" s="2">
+    <row r="74">
+      <c r="A74" s="2" t="n">
         <v>44287</v>
       </c>
-      <c r="B74">
+      <c r="B74" t="n">
         <v>29.60000038146973</v>
       </c>
-      <c r="C74">
+      <c r="C74" t="n">
         <v>29.60000038146973</v>
       </c>
-      <c r="D74">
+      <c r="D74" t="n">
         <v>29.47999954223633</v>
       </c>
-      <c r="E74">
+      <c r="E74" t="n">
         <v>29.48999977111816</v>
       </c>
-      <c r="F74">
+      <c r="F74" t="n">
         <v>27.40556335449219</v>
       </c>
-      <c r="G74">
+      <c r="G74" t="n">
         <v>2600</v>
       </c>
-      <c r="H74">
+      <c r="H74" t="n">
         <v>-0.02253895603103062</v>
       </c>
-      <c r="I74">
+      <c r="I74" t="n">
         <v>0.07626756046653188</v>
       </c>
-      <c r="J74">
+      <c r="J74" t="n">
         <v>0.2385552470633359</v>
       </c>
-      <c r="K74">
+      <c r="K74" t="n">
         <v>0.2385552470633359</v>
       </c>
     </row>
-    <row r="75" spans="1:11">
-      <c r="A75" s="2">
+    <row r="75">
+      <c r="A75" s="2" t="n">
         <v>44317</v>
       </c>
-      <c r="B75">
+      <c r="B75" t="n">
         <v>30.92000007629395</v>
       </c>
-      <c r="C75">
+      <c r="C75" t="n">
         <v>31.11000061035156</v>
       </c>
-      <c r="D75">
+      <c r="D75" t="n">
         <v>30.89999961853027</v>
       </c>
-      <c r="E75">
+      <c r="E75" t="n">
         <v>31.10099983215332</v>
       </c>
-      <c r="F75">
+      <c r="F75" t="n">
         <v>28.9026927947998</v>
       </c>
-      <c r="G75">
+      <c r="G75" t="n">
         <v>2900</v>
       </c>
-      <c r="H75">
+      <c r="H75" t="n">
         <v>0.05462869018442418</v>
       </c>
-      <c r="I75">
+      <c r="I75" t="n">
         <v>0.07608228271239525</v>
       </c>
-      <c r="J75">
+      <c r="J75" t="n">
         <v>0.3291025785968256</v>
       </c>
-      <c r="K75">
+      <c r="K75" t="n">
         <v>0.3291025785968256</v>
       </c>
     </row>
-    <row r="76" spans="1:11">
-      <c r="A76" s="2">
+    <row r="76">
+      <c r="A76" s="2" t="n">
         <v>44348</v>
       </c>
-      <c r="B76">
+      <c r="B76" t="n">
         <v>29.03000068664551</v>
       </c>
-      <c r="C76">
+      <c r="C76" t="n">
         <v>29.13400077819824</v>
       </c>
-      <c r="D76">
+      <c r="D76" t="n">
         <v>29.03000068664551</v>
       </c>
-      <c r="E76">
+      <c r="E76" t="n">
         <v>29.13400077819824</v>
       </c>
-      <c r="F76">
+      <c r="F76" t="n">
         <v>28.07878303527832</v>
       </c>
-      <c r="G76">
+      <c r="G76" t="n">
         <v>900</v>
       </c>
-      <c r="H76">
+      <c r="H76" t="n">
         <v>-0.06324552472816403</v>
       </c>
-      <c r="I76">
+      <c r="I76" t="n">
         <v>0.07584711956469607</v>
       </c>
-      <c r="J76">
+      <c r="J76" t="n">
         <v>0.3000446665135794</v>
       </c>
-      <c r="K76">
+      <c r="K76" t="n">
         <v>0.3000446665135794</v>
       </c>
     </row>
-    <row r="77" spans="1:11">
-      <c r="A77" s="2">
+    <row r="77">
+      <c r="A77" s="2" t="n">
         <v>44378</v>
       </c>
-      <c r="B77">
+      <c r="B77" t="n">
         <v>28.10000038146973</v>
       </c>
-      <c r="C77">
+      <c r="C77" t="n">
         <v>28.20000076293945</v>
       </c>
-      <c r="D77">
+      <c r="D77" t="n">
         <v>28</v>
       </c>
-      <c r="E77">
+      <c r="E77" t="n">
         <v>28</v>
       </c>
-      <c r="F77">
+      <c r="F77" t="n">
         <v>26.98585510253906</v>
       </c>
-      <c r="G77">
+      <c r="G77" t="n">
         <v>2100</v>
       </c>
-      <c r="H77">
+      <c r="H77" t="n">
         <v>-0.03892362009706696</v>
       </c>
-      <c r="I77">
+      <c r="I77" t="n">
         <v>0.07542171846051189</v>
       </c>
-      <c r="J77">
+      <c r="J77" t="n">
         <v>0.06141019297842631</v>
       </c>
-      <c r="K77">
+      <c r="K77" t="n">
         <v>0.06141019297842631</v>
       </c>
     </row>
-    <row r="78" spans="1:11">
-      <c r="A78" s="2">
+    <row r="78">
+      <c r="A78" s="2" t="n">
         <v>44409</v>
       </c>
-      <c r="B78">
+      <c r="B78" t="n">
         <v>27.31999969482422</v>
       </c>
-      <c r="C78">
+      <c r="C78" t="n">
         <v>27.60000038146973</v>
       </c>
-      <c r="D78">
+      <c r="D78" t="n">
         <v>27.11100006103516</v>
       </c>
-      <c r="E78">
+      <c r="E78" t="n">
         <v>27.60000038146973</v>
       </c>
-      <c r="F78">
+      <c r="F78" t="n">
         <v>26.60034370422363</v>
       </c>
-      <c r="G78">
+      <c r="G78" t="n">
         <v>6400</v>
       </c>
-      <c r="H78">
+      <c r="H78" t="n">
         <v>-0.01428570066179546</v>
       </c>
-      <c r="I78">
+      <c r="I78" t="n">
         <v>0.07492107965362009</v>
       </c>
-      <c r="J78">
+      <c r="J78" t="n">
         <v>0.0244988802645989</v>
       </c>
-      <c r="K78">
+      <c r="K78" t="n">
         <v>0.0244988802645989</v>
       </c>
     </row>
-    <row r="79" spans="1:11">
-      <c r="A79" s="2">
+    <row r="79">
+      <c r="A79" s="2" t="n">
         <v>44440</v>
       </c>
-      <c r="B79">
+      <c r="B79" t="n">
         <v>24.5</v>
       </c>
-      <c r="C79">
+      <c r="C79" t="n">
         <v>24.56999969482422</v>
       </c>
-      <c r="D79">
+      <c r="D79" t="n">
         <v>24.5</v>
       </c>
-      <c r="E79">
+      <c r="E79" t="n">
         <v>24.5</v>
       </c>
-      <c r="F79">
+      <c r="F79" t="n">
         <v>23.61262321472168</v>
       </c>
-      <c r="G79">
+      <c r="G79" t="n">
         <v>6400</v>
       </c>
-      <c r="H79">
+      <c r="H79" t="n">
         <v>-0.1123188528486769</v>
       </c>
-      <c r="I79">
+      <c r="I79" t="n">
         <v>0.07537465150059537</v>
       </c>
-      <c r="J79">
+      <c r="J79" t="n">
         <v>-0.07963939791124552</v>
       </c>
-      <c r="K79">
+      <c r="K79" t="n">
         <v>-0.07963939791124552</v>
       </c>
     </row>
-    <row r="80" spans="1:11">
-      <c r="A80" s="2">
+    <row r="80">
+      <c r="A80" s="2" t="n">
         <v>44470</v>
       </c>
-      <c r="B80">
+      <c r="B80" t="n">
         <v>25.5</v>
       </c>
-      <c r="C80">
+      <c r="C80" t="n">
         <v>25.98999977111816</v>
       </c>
-      <c r="D80">
+      <c r="D80" t="n">
         <v>25.5</v>
       </c>
-      <c r="E80">
+      <c r="E80" t="n">
         <v>25.68000030517578</v>
       </c>
-      <c r="F80">
+      <c r="F80" t="n">
         <v>24.7498836517334</v>
       </c>
-      <c r="G80">
+      <c r="G80" t="n">
         <v>10200</v>
       </c>
-      <c r="H80">
+      <c r="H80" t="n">
         <v>0.04816327776227669</v>
       </c>
-      <c r="I80">
+      <c r="I80" t="n">
         <v>0.07516379221084846</v>
       </c>
-      <c r="J80">
+      <c r="J80" t="n">
         <v>-0.04535313496860005</v>
       </c>
-      <c r="K80">
+      <c r="K80" t="n">
         <v>-0.04535313496860005</v>
       </c>
     </row>
-    <row r="81" spans="1:11">
-      <c r="A81" s="2">
+    <row r="81">
+      <c r="A81" s="2" t="n">
         <v>44501</v>
       </c>
-      <c r="B81">
+      <c r="B81" t="n">
         <v>24.28000068664551</v>
       </c>
-      <c r="C81">
+      <c r="C81" t="n">
         <v>24.46999931335449</v>
       </c>
-      <c r="D81">
+      <c r="D81" t="n">
         <v>23.85000038146973</v>
       </c>
-      <c r="E81">
+      <c r="E81" t="n">
         <v>24</v>
       </c>
-      <c r="F81">
+      <c r="F81" t="n">
         <v>23.13073348999023</v>
       </c>
-      <c r="G81">
+      <c r="G81" t="n">
         <v>71400</v>
       </c>
-      <c r="H81">
+      <c r="H81" t="n">
         <v>-0.06542057185401118</v>
       </c>
-      <c r="I81">
+      <c r="I81" t="n">
         <v>0.07495577973065883</v>
       </c>
-      <c r="J81">
+      <c r="J81" t="n">
         <v>-0.1459074849042861</v>
       </c>
-      <c r="K81">
+      <c r="K81" t="n">
         <v>-0.1459074849042861</v>
       </c>
     </row>
-    <row r="82" spans="1:11">
-      <c r="A82" s="2">
+    <row r="82">
+      <c r="A82" s="2" t="n">
         <v>44531</v>
       </c>
-      <c r="B82">
+      <c r="B82" t="n">
         <v>22.8700008392334</v>
       </c>
-      <c r="C82">
+      <c r="C82" t="n">
         <v>22.88999938964844</v>
       </c>
-      <c r="D82">
+      <c r="D82" t="n">
         <v>22.70000076293945</v>
       </c>
-      <c r="E82">
+      <c r="E82" t="n">
         <v>22.88999938964844</v>
       </c>
-      <c r="F82">
+      <c r="F82" t="n">
         <v>22.88999938964844</v>
       </c>
-      <c r="G82">
+      <c r="G82" t="n">
         <v>5300</v>
       </c>
-      <c r="H82">
+      <c r="H82" t="n">
         <v>-0.04625002543131507</v>
       </c>
-      <c r="I82">
+      <c r="I82" t="n">
         <v>0.0745956562998287</v>
       </c>
-      <c r="J82">
+      <c r="J82" t="n">
         <v>-0.2064758074988964</v>
       </c>
-      <c r="K82">
+      <c r="K82" t="n">
         <v>-0.2064758074988964</v>
       </c>
     </row>
-    <row r="83" spans="1:11">
-      <c r="A83" s="2">
+    <row r="83">
+      <c r="A83" s="2" t="n">
         <v>44562</v>
       </c>
-      <c r="B83">
+      <c r="B83" t="n">
         <v>22.98999977111816</v>
       </c>
-      <c r="C83">
-        <v>23.24049949645996</v>
-      </c>
-      <c r="D83">
-        <v>23.24049949645996</v>
-      </c>
-      <c r="E83">
-        <v>23.24049949645996</v>
-      </c>
-      <c r="F83">
-        <v>23.24049949645996</v>
-      </c>
-      <c r="G83">
-        <v>1699</v>
-      </c>
-      <c r="H83">
-        <v>0.01531236855209483</v>
-      </c>
-      <c r="I83">
-        <v>0.07417943868016398</v>
-      </c>
-      <c r="J83">
-        <v>-0.221945134131559</v>
-      </c>
-      <c r="K83">
-        <v>-0.221945134131559</v>
+      <c r="C83" t="n">
+        <v>23.29999923706055</v>
+      </c>
+      <c r="D83" t="n">
+        <v>22.98999977111816</v>
+      </c>
+      <c r="E83" t="n">
+        <v>23.20000076293945</v>
+      </c>
+      <c r="F83" t="n">
+        <v>23.20000076293945</v>
+      </c>
+      <c r="G83" t="n">
+        <v>5100</v>
+      </c>
+      <c r="H83" t="n">
+        <v>0.01354309224801509</v>
+      </c>
+      <c r="I83" t="n">
+        <v>0.07417237676574763</v>
+      </c>
+      <c r="J83" t="n">
+        <v>-0.2233009671540782</v>
+      </c>
+      <c r="K83" t="n">
+        <v>-0.2233009671540782</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>